--- a/GameDesign/ExcelData/Conversation_Data.xlsx
+++ b/GameDesign/ExcelData/Conversation_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5780E7-79BE-48C6-9734-4188B8F82AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E657CF-7A72-4D2C-ADD7-1476BD85BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,7 +431,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/Conversation_Data.xlsx
+++ b/GameDesign/ExcelData/Conversation_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E657CF-7A72-4D2C-ADD7-1476BD85BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EE45F3-A891-4B47-864C-C794D59E7401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1350" yWindow="1350" windowWidth="3600" windowHeight="1995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
   <si>
     <t>long</t>
   </si>
@@ -85,6 +85,85 @@
   </si>
   <si>
     <t>[1003,1002]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liu Jianxin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sniper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commander</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[7]</t>
+  </si>
+  <si>
+    <t>[8]</t>
+  </si>
+  <si>
+    <t>[9]</t>
+  </si>
+  <si>
+    <t>[10]</t>
+  </si>
+  <si>
+    <t>[11]</t>
+  </si>
+  <si>
+    <t>[12]</t>
+  </si>
+  <si>
+    <t>[13]</t>
+  </si>
+  <si>
+    <t>[14]</t>
+  </si>
+  <si>
+    <t>[15]</t>
+  </si>
+  <si>
+    <t>那个孩子……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢谢你允许我送那个孩子回去。我知道我不应该在这种时候离开阵地……</t>
+  </si>
+  <si>
+    <t>不必在意，我本来也是打算让你送他回去的。这里毕竟，太危险了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他一定要活下去——不能再有无辜的人牺牲了。</t>
+  </si>
+  <si>
+    <t>他多半很快会跟着其他村民撤往后方吧，能多保住一条性命，总是好的。</t>
+  </si>
+  <si>
+    <t>不能再有无辜的人牺牲了。我决不允许……</t>
+  </si>
+  <si>
+    <t>（刘建新喃喃自语，似乎并没有听见指挥官说的话）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（他好像有点过于激动了？）</t>
+  </si>
+  <si>
+    <t>（也许是被那个孩子触动了什么回忆吧。这场战争里，谁都有不愿想起的过去。）</t>
+  </si>
+  <si>
+    <t>（仔细想来，刘建新虽然沉默少言，却似乎总是不愿意看见他人的牺牲，总是渴望拯救他人。）</t>
+  </si>
+  <si>
+    <t>（或许等有机会，再问问他的过去吧。）</t>
+  </si>
+  <si>
+    <t>[6]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -92,7 +171,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +181,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10.5"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -134,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -148,6 +236,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -428,22 +520,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="19.33203125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="33.109375" customWidth="1"/>
-    <col min="5" max="5" width="31.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="33.125" customWidth="1"/>
+    <col min="5" max="5" width="31.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,7 +555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -483,12 +575,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -503,12 +595,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -520,6 +612,226 @@
         <v>8</v>
       </c>
       <c r="F4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>1007</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>1008</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>1009</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>1010</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>1012</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>1013</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1">
         <v>1</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/Conversation_Data.xlsx
+++ b/GameDesign/ExcelData/Conversation_Data.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EE45F3-A891-4B47-864C-C794D59E7401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60519CD9-1190-4D05-8E64-535B6A7B0A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="1350" windowWidth="3600" windowHeight="1995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="111">
   <si>
     <t>long</t>
   </si>
@@ -40,10 +49,6 @@
     <t>Id</t>
   </si>
   <si>
-    <t>conver1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -52,10 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>conver2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[5]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,6 +165,239 @@
   </si>
   <si>
     <t>[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那个孩子…你觉得我不应该留下他？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里是死地，不是他该待的地方。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他已经没有家了，至少，在这里我们还能照看他。</t>
+  </si>
+  <si>
+    <t>胡说！只要你让我送他出去，他就有机会撤到后方去！</t>
+  </si>
+  <si>
+    <t>那少了一个战士，阵地怎么办？你不要忘了我们在这里的任务！</t>
+  </si>
+  <si>
+    <t>如果我们战败了，就没有后方了，会有更多无辜的人死去。</t>
+  </si>
+  <si>
+    <t>我们不能为了一个孩子，冒额外的风险。</t>
+  </si>
+  <si>
+    <t>阵地要守，一个人的命也要救。</t>
+  </si>
+  <si>
+    <t>不能再有无辜的人牺牲了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你有没有想过，也许他不需要你的拯救。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这也是他的祖国，他已经做好了战斗的准备了。</t>
+  </si>
+  <si>
+    <t>……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无论如何，我一定会保护好他。</t>
+  </si>
+  <si>
+    <t>刚才没来得及说，幸好你这么快接好了电话线，没有耽误战机。</t>
+  </si>
+  <si>
+    <t>小事。</t>
+  </si>
+  <si>
+    <t>（一起作战了这么多天，他还是这么沉稳而寡言。）</t>
+  </si>
+  <si>
+    <t>（再找点话和他说说吧，既然大家同生共死，那我多少得鼓舞一下他的士气。）</t>
+  </si>
+  <si>
+    <t>不得不说，能够有你这么勇敢的战士，我作为指挥官也安心不少。</t>
+  </si>
+  <si>
+    <t>……我并没有什么勇敢的。</t>
+  </si>
+  <si>
+    <t>不是所有人都愿意冒着生命危险去承担本不属于自己的任务的。你也不必过于谦虚。</t>
+  </si>
+  <si>
+    <t>死了就一了百了。没什么好犹豫的。</t>
+  </si>
+  <si>
+    <t>这……确实大家都做好了与阵地共存亡的准备，但大家多少还是会害怕的。</t>
+  </si>
+  <si>
+    <t>……我不会。</t>
+  </si>
+  <si>
+    <t>（他在……渴望死亡？）</t>
+  </si>
+  <si>
+    <t>（所以他才总是愿意承担危险的任务？）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（有点不对劲……）</t>
+  </si>
+  <si>
+    <t>我们并不后悔留在这里。</t>
+  </si>
+  <si>
+    <t>战死沙场，是军人的宿命。</t>
+  </si>
+  <si>
+    <t>祖国的人民，会见证我们的勇气的。</t>
+  </si>
+  <si>
+    <t>不用内疚，指挥官。</t>
+  </si>
+  <si>
+    <t>什么……？</t>
+  </si>
+  <si>
+    <t>（刘建新向来沉默寡言，突然说这么多话，倒是罕见）</t>
+  </si>
+  <si>
+    <t>我明白了。</t>
+  </si>
+  <si>
+    <t>为了祖国。</t>
+  </si>
+  <si>
+    <t>[1001,1002]</t>
+  </si>
+  <si>
+    <t>[16]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[17]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[18]</t>
+  </si>
+  <si>
+    <t>[19]</t>
+  </si>
+  <si>
+    <t>[20]</t>
+  </si>
+  <si>
+    <t>[21]</t>
+  </si>
+  <si>
+    <t>[22]</t>
+  </si>
+  <si>
+    <t>[23]</t>
+  </si>
+  <si>
+    <t>[24]</t>
+  </si>
+  <si>
+    <t>[25]</t>
+  </si>
+  <si>
+    <t>[26]</t>
+  </si>
+  <si>
+    <t>[27]</t>
+  </si>
+  <si>
+    <t>[28]</t>
+  </si>
+  <si>
+    <t>[29]</t>
+  </si>
+  <si>
+    <t>[30]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[31]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[32]</t>
+  </si>
+  <si>
+    <t>[33]</t>
+  </si>
+  <si>
+    <t>[34]</t>
+  </si>
+  <si>
+    <t>[35]</t>
+  </si>
+  <si>
+    <t>[36]</t>
+  </si>
+  <si>
+    <t>[37]</t>
+  </si>
+  <si>
+    <t>[38]</t>
+  </si>
+  <si>
+    <t>[39]</t>
+  </si>
+  <si>
+    <t>[40]</t>
+  </si>
+  <si>
+    <t>[41]</t>
+  </si>
+  <si>
+    <t>[43]</t>
+  </si>
+  <si>
+    <t>[44]</t>
+  </si>
+  <si>
+    <t>[45]</t>
+  </si>
+  <si>
+    <t>[46]</t>
+  </si>
+  <si>
+    <t>[47]</t>
+  </si>
+  <si>
+    <t>[48]</t>
+  </si>
+  <si>
+    <t>[49]</t>
+  </si>
+  <si>
+    <t>[50]</t>
+  </si>
+  <si>
+    <t>（很少见刘建新这么激动。是被触动了什么回忆吗？）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（或许等有机会，再问问他的过去吧。）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是默认对话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是默认对话2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -171,7 +405,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,8 +429,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +448,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -240,6 +494,15 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -520,17 +783,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.875" style="1"/>
     <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="33.125" customWidth="1"/>
+    <col min="3" max="3" width="41.375" customWidth="1"/>
+    <col min="4" max="4" width="33.125" customWidth="1"/>
     <col min="5" max="5" width="31.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="30.25" style="1" customWidth="1"/>
   </cols>
@@ -552,7 +816,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -560,19 +824,19 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -580,16 +844,16 @@
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -600,56 +864,56 @@
         <v>1002</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>1003</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>1004</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>1003</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="27" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>1004</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -660,36 +924,36 @@
         <v>1005</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -700,16 +964,16 @@
         <v>1007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -720,36 +984,36 @@
         <v>1008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -760,16 +1024,16 @@
         <v>1010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -780,36 +1044,36 @@
         <v>1011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1012</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -820,19 +1084,759 @@
         <v>1013</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>1014</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1015</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>1016</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>1017</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>1018</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>1019</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>1020</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>1021</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>1022</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>1023</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>1025</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>1026</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>1027</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>1028</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <v>1029</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>1030</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>1031</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>1032</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>1033</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>1034</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>1035</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>1036</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>1037</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>1038</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>1039</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>1040</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>1041</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="7">
+        <v>1042</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>1043</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>1044</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>1045</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>1046</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>1047</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>1048</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>1049</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>1050</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/Conversation_Data.xlsx
+++ b/GameDesign/ExcelData/Conversation_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60519CD9-1190-4D05-8E64-535B6A7B0A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4041EEF-09D4-4687-AC19-1580305FB4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="110">
   <si>
     <t>long</t>
   </si>
@@ -81,14 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[1001,1002]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1003,1002]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Liu Jianxin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -276,9 +268,6 @@
     <t>为了祖国。</t>
   </si>
   <si>
-    <t>[1001,1002]</t>
-  </si>
-  <si>
     <t>[16]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -393,11 +382,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这是默认对话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>这是默认对话2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1001,1009]</t>
+  </si>
+  <si>
+    <t>[1001,1009]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1002,1009]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -785,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -844,13 +840,13 @@
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>109</v>
+        <v>12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>111</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
@@ -864,19 +860,19 @@
         <v>1002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -884,16 +880,16 @@
         <v>1003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -904,16 +900,16 @@
         <v>1004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -924,16 +920,16 @@
         <v>1005</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -944,16 +940,16 @@
         <v>1006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -964,16 +960,16 @@
         <v>1007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -984,16 +980,16 @@
         <v>1008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1004,16 +1000,16 @@
         <v>1009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -1024,16 +1020,16 @@
         <v>1010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -1044,16 +1040,16 @@
         <v>1011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -1064,16 +1060,16 @@
         <v>1012</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -1084,13 +1080,13 @@
         <v>1013</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>6</v>
@@ -1104,16 +1100,16 @@
         <v>1014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -1124,16 +1120,16 @@
         <v>1015</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -1144,16 +1140,16 @@
         <v>1016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
@@ -1164,16 +1160,16 @@
         <v>1017</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -1184,16 +1180,16 @@
         <v>1018</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
@@ -1204,16 +1200,16 @@
         <v>1019</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
@@ -1224,16 +1220,16 @@
         <v>1020</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
@@ -1244,16 +1240,16 @@
         <v>1021</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -1264,16 +1260,16 @@
         <v>1022</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -1284,16 +1280,16 @@
         <v>1023</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
@@ -1304,16 +1300,16 @@
         <v>1024</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
@@ -1324,16 +1320,16 @@
         <v>1025</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -1344,16 +1340,16 @@
         <v>1026</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -1364,16 +1360,16 @@
         <v>1027</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F29" s="1">
         <v>1</v>
@@ -1384,13 +1380,13 @@
         <v>1028</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>6</v>
@@ -1404,16 +1400,16 @@
         <v>1029</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F31" s="1">
         <v>1</v>
@@ -1424,16 +1420,16 @@
         <v>1030</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -1444,16 +1440,16 @@
         <v>1031</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F33" s="1">
         <v>1</v>
@@ -1464,16 +1460,16 @@
         <v>1032</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
@@ -1484,16 +1480,16 @@
         <v>1033</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F35" s="1">
         <v>1</v>
@@ -1504,16 +1500,16 @@
         <v>1034</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -1524,16 +1520,16 @@
         <v>1035</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F37" s="1">
         <v>1</v>
@@ -1544,16 +1540,16 @@
         <v>1036</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -1564,16 +1560,16 @@
         <v>1037</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F39" s="1">
         <v>1</v>
@@ -1584,16 +1580,16 @@
         <v>1038</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -1604,16 +1600,16 @@
         <v>1039</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F41" s="1">
         <v>1</v>
@@ -1624,16 +1620,16 @@
         <v>1040</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F42" s="1">
         <v>1</v>
@@ -1644,13 +1640,13 @@
         <v>1041</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>6</v>
@@ -1664,16 +1660,16 @@
         <v>1042</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -1684,16 +1680,16 @@
         <v>1043</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F45" s="1">
         <v>1</v>
@@ -1704,16 +1700,16 @@
         <v>1044</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -1724,16 +1720,16 @@
         <v>1045</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -1744,16 +1740,16 @@
         <v>1046</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -1764,16 +1760,16 @@
         <v>1047</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F49" s="1">
         <v>1</v>
@@ -1784,16 +1780,16 @@
         <v>1048</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F50" s="1">
         <v>1</v>
@@ -1804,16 +1800,16 @@
         <v>1049</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F51" s="1">
         <v>1</v>
@@ -1824,13 +1820,13 @@
         <v>1050</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>6</v>

--- a/GameDesign/ExcelData/Conversation_Data.xlsx
+++ b/GameDesign/ExcelData/Conversation_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4041EEF-09D4-4687-AC19-1580305FB4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E582DF-756E-4B18-8BFF-A8A4468D68B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="109">
   <si>
     <t>long</t>
   </si>
@@ -120,154 +120,14 @@
     <t>[15]</t>
   </si>
   <si>
-    <t>那个孩子……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢谢你允许我送那个孩子回去。我知道我不应该在这种时候离开阵地……</t>
-  </si>
-  <si>
-    <t>不必在意，我本来也是打算让你送他回去的。这里毕竟，太危险了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>他一定要活下去——不能再有无辜的人牺牲了。</t>
-  </si>
-  <si>
-    <t>他多半很快会跟着其他村民撤往后方吧，能多保住一条性命，总是好的。</t>
-  </si>
-  <si>
-    <t>不能再有无辜的人牺牲了。我决不允许……</t>
-  </si>
-  <si>
-    <t>（刘建新喃喃自语，似乎并没有听见指挥官说的话）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（他好像有点过于激动了？）</t>
-  </si>
-  <si>
-    <t>（也许是被那个孩子触动了什么回忆吧。这场战争里，谁都有不愿想起的过去。）</t>
-  </si>
-  <si>
-    <t>（仔细想来，刘建新虽然沉默少言，却似乎总是不愿意看见他人的牺牲，总是渴望拯救他人。）</t>
-  </si>
-  <si>
-    <t>（或许等有机会，再问问他的过去吧。）</t>
-  </si>
-  <si>
     <t>[6]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>那个孩子…你觉得我不应该留下他？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这里是死地，不是他该待的地方。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>他已经没有家了，至少，在这里我们还能照看他。</t>
-  </si>
-  <si>
-    <t>胡说！只要你让我送他出去，他就有机会撤到后方去！</t>
-  </si>
-  <si>
-    <t>那少了一个战士，阵地怎么办？你不要忘了我们在这里的任务！</t>
-  </si>
-  <si>
-    <t>如果我们战败了，就没有后方了，会有更多无辜的人死去。</t>
-  </si>
-  <si>
-    <t>我们不能为了一个孩子，冒额外的风险。</t>
-  </si>
-  <si>
-    <t>阵地要守，一个人的命也要救。</t>
-  </si>
-  <si>
-    <t>不能再有无辜的人牺牲了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你有没有想过，也许他不需要你的拯救。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这也是他的祖国，他已经做好了战斗的准备了。</t>
-  </si>
-  <si>
     <t>……</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无论如何，我一定会保护好他。</t>
-  </si>
-  <si>
-    <t>刚才没来得及说，幸好你这么快接好了电话线，没有耽误战机。</t>
-  </si>
-  <si>
-    <t>小事。</t>
-  </si>
-  <si>
-    <t>（一起作战了这么多天，他还是这么沉稳而寡言。）</t>
-  </si>
-  <si>
-    <t>（再找点话和他说说吧，既然大家同生共死，那我多少得鼓舞一下他的士气。）</t>
-  </si>
-  <si>
-    <t>不得不说，能够有你这么勇敢的战士，我作为指挥官也安心不少。</t>
-  </si>
-  <si>
-    <t>……我并没有什么勇敢的。</t>
-  </si>
-  <si>
-    <t>不是所有人都愿意冒着生命危险去承担本不属于自己的任务的。你也不必过于谦虚。</t>
-  </si>
-  <si>
-    <t>死了就一了百了。没什么好犹豫的。</t>
-  </si>
-  <si>
-    <t>这……确实大家都做好了与阵地共存亡的准备，但大家多少还是会害怕的。</t>
-  </si>
-  <si>
-    <t>……我不会。</t>
-  </si>
-  <si>
-    <t>（他在……渴望死亡？）</t>
-  </si>
-  <si>
-    <t>（所以他才总是愿意承担危险的任务？）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（有点不对劲……）</t>
-  </si>
-  <si>
-    <t>我们并不后悔留在这里。</t>
-  </si>
-  <si>
-    <t>战死沙场，是军人的宿命。</t>
-  </si>
-  <si>
-    <t>祖国的人民，会见证我们的勇气的。</t>
-  </si>
-  <si>
-    <t>不用内疚，指挥官。</t>
-  </si>
-  <si>
-    <t>什么……？</t>
-  </si>
-  <si>
-    <t>（刘建新向来沉默寡言，突然说这么多话，倒是罕见）</t>
-  </si>
-  <si>
-    <t>我明白了。</t>
-  </si>
-  <si>
-    <t>为了祖国。</t>
-  </si>
-  <si>
     <t>[16]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -374,14 +234,6 @@
     <t>[50]</t>
   </si>
   <si>
-    <t>（很少见刘建新这么激动。是被触动了什么回忆吗？）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（或许等有机会，再问问他的过去吧。）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>这是默认对话2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -394,6 +246,186 @@
   </si>
   <si>
     <t>[1002,1009]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The kid……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thank you for allowing me to send that kid back. I know I shouldn't leave my position at a time like this ......</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's all right, I was going to ask you to send him back too. After all, it is too dangerous here.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He must live - no more innocent people should die from this tragedy.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He will probably soon follow the other folks to go to a safer place. It is always good to save one more life.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No more innocent people should die. I will not allow ......</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Liu Jianxin mumbles and doesn't seem to hear what the commander says)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Does he seem a bit overexcited?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Perhaps the child touched some memory. In this war, everyone has a past that they don't want to remember.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Come to think of it, although Liu Jianxin is silent and seldom speaks, he always seems unwilling to see the sacrifice of others and is always eager to save them.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Maybe I should talk to him about his past when I get a chance.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That kid...you think I shouldn't keep him here?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is a place of death, not a place he should be.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He no longer has a home, and at least, here we can still look after him.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nonsense! If you let me send him out, he'll have a chance to go somewhere safe!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What about the position with one less soldier? Don't you forget our tasks here!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If we lose the war, there will be no safe place, and more innocent people will die.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We can't take extra risks for a kid.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Positions have to be defended and a life has to be saved. They are not contradicted.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No more innocent people should die.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did it ever occur to you that maybe he doesn't need to be saved by you.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's also his Motherland, and he's ready to fight.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No matter what, I will protect him.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(It's rare to see Liu Jianxin so excited. Is he touched by any memories?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I didn't have time to say it just now, but fortunately you fixed the phone line so quickly and didn't delay anything.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's nothing.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(After fighting together for so many days, he is still so calm and reticent.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(I should try to talk to him more. We all live and die together now, then I at least try to encourage him.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have to say that being able to have such a brave warrior like you has given me great comfort as a commander.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>...... I am not brave in any way.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not everyone is willing to risk their lives to take on tasks that do not belong to them. You don't have to be overly modest.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you die, it's over. There is nothing to hesitate.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>...... I won't.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well ...... It is true that everyone is prepared to survive or die with out position, but it's ok to be afraid of death.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Is he longing for death......?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Is that why he is always willing to take on dangerous tasks?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Something is not right……）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No need to feel guilty, Commander.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sorry ......?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We don't regret staying here.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is the destiny of a soldier to die on the battlefield.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The people of Motherland will bear witness to our courage.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Liu has always been quiet, it's rare that he would talk this much.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I understand.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For Motherland.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -781,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -846,7 +878,7 @@
         <v>111</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
@@ -863,10 +895,10 @@
         <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
@@ -883,19 +915,19 @@
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>1004</v>
       </c>
@@ -903,10 +935,10 @@
         <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>15</v>
@@ -923,10 +955,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
@@ -935,7 +967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1006</v>
       </c>
@@ -943,10 +975,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>17</v>
@@ -963,10 +995,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>18</v>
@@ -983,10 +1015,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>19</v>
@@ -995,7 +1027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1009</v>
       </c>
@@ -1003,10 +1035,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>20</v>
@@ -1023,10 +1055,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>21</v>
@@ -1035,7 +1067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1011</v>
       </c>
@@ -1043,10 +1075,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>22</v>
@@ -1055,7 +1087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1012</v>
       </c>
@@ -1063,10 +1095,10 @@
         <v>14</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>23</v>
@@ -1075,7 +1107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1013</v>
       </c>
@@ -1083,10 +1115,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>6</v>
@@ -1103,13 +1135,13 @@
         <v>14</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -1123,13 +1155,13 @@
         <v>12</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -1143,13 +1175,13 @@
         <v>14</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
@@ -1163,13 +1195,13 @@
         <v>12</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -1183,13 +1215,13 @@
         <v>14</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
@@ -1203,13 +1235,13 @@
         <v>14</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
@@ -1223,19 +1255,19 @@
         <v>14</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>1021</v>
       </c>
@@ -1243,13 +1275,13 @@
         <v>12</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -1263,19 +1295,19 @@
         <v>12</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>1023</v>
       </c>
@@ -1283,13 +1315,13 @@
         <v>14</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
@@ -1303,13 +1335,13 @@
         <v>14</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
@@ -1323,13 +1355,13 @@
         <v>12</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -1343,13 +1375,13 @@
         <v>12</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -1363,13 +1395,13 @@
         <v>14</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="F29" s="1">
         <v>1</v>
@@ -1383,10 +1415,10 @@
         <v>14</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>6</v>
@@ -1395,7 +1427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>1029</v>
       </c>
@@ -1403,13 +1435,13 @@
         <v>14</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="F31" s="1">
         <v>1</v>
@@ -1423,19 +1455,19 @@
         <v>12</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>1031</v>
       </c>
@@ -1443,13 +1475,13 @@
         <v>14</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="F33" s="1">
         <v>1</v>
@@ -1463,19 +1495,19 @@
         <v>14</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>1033</v>
       </c>
@@ -1483,13 +1515,13 @@
         <v>14</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="F35" s="1">
         <v>1</v>
@@ -1503,19 +1535,19 @@
         <v>12</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>1035</v>
       </c>
@@ -1523,13 +1555,13 @@
         <v>14</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="F37" s="1">
         <v>1</v>
@@ -1543,19 +1575,19 @@
         <v>12</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>1037</v>
       </c>
@@ -1563,13 +1595,13 @@
         <v>14</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="F39" s="1">
         <v>1</v>
@@ -1583,13 +1615,13 @@
         <v>12</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -1603,19 +1635,19 @@
         <v>14</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="F41" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>1040</v>
       </c>
@@ -1623,13 +1655,13 @@
         <v>14</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="F42" s="1">
         <v>1</v>
@@ -1643,10 +1675,10 @@
         <v>14</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>6</v>
@@ -1663,13 +1695,13 @@
         <v>12</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -1683,13 +1715,13 @@
         <v>14</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="F45" s="1">
         <v>1</v>
@@ -1703,13 +1735,13 @@
         <v>12</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -1723,19 +1755,19 @@
         <v>12</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>1046</v>
       </c>
@@ -1743,13 +1775,13 @@
         <v>12</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -1763,13 +1795,13 @@
         <v>14</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="F49" s="1">
         <v>1</v>
@@ -1783,13 +1815,13 @@
         <v>14</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="F50" s="1">
         <v>1</v>
@@ -1803,13 +1835,13 @@
         <v>14</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="F51" s="1">
         <v>1</v>
@@ -1823,10 +1855,10 @@
         <v>12</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>6</v>

--- a/GameDesign/ExcelData/Conversation_Data.xlsx
+++ b/GameDesign/ExcelData/Conversation_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E582DF-756E-4B18-8BFF-A8A4468D68B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D0DECC-A5AA-4267-A7F5-21614CA392B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="111">
   <si>
     <t>long</t>
   </si>
@@ -61,10 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[1,2,4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>descrption</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,10 +230,6 @@
     <t>[50]</t>
   </si>
   <si>
-    <t>这是默认对话2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[1001,1009]</t>
   </si>
   <si>
@@ -426,6 +418,22 @@
   </si>
   <si>
     <t>For Motherland.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Design in progress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1004,1009]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I need some rest.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -811,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -852,16 +860,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>5</v>
@@ -872,16 +880,16 @@
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1">
-        <v>111</v>
+        <v>108</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -892,13 +900,13 @@
         <v>1002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
@@ -912,16 +920,16 @@
         <v>1003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -932,16 +940,16 @@
         <v>1004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -952,16 +960,16 @@
         <v>1005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -972,16 +980,16 @@
         <v>1006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -992,16 +1000,16 @@
         <v>1007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -1012,16 +1020,16 @@
         <v>1008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1032,16 +1040,16 @@
         <v>1009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -1052,16 +1060,16 @@
         <v>1010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -1072,16 +1080,16 @@
         <v>1011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -1092,16 +1100,16 @@
         <v>1012</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -1112,13 +1120,13 @@
         <v>1013</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>6</v>
@@ -1132,16 +1140,16 @@
         <v>1014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -1152,16 +1160,16 @@
         <v>1015</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -1172,16 +1180,16 @@
         <v>1016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
@@ -1192,16 +1200,16 @@
         <v>1017</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -1212,16 +1220,16 @@
         <v>1018</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
@@ -1232,16 +1240,16 @@
         <v>1019</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
@@ -1252,16 +1260,16 @@
         <v>1020</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
@@ -1272,16 +1280,16 @@
         <v>1021</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -1292,16 +1300,16 @@
         <v>1022</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -1312,16 +1320,16 @@
         <v>1023</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
@@ -1332,16 +1340,16 @@
         <v>1024</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
@@ -1352,16 +1360,16 @@
         <v>1025</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -1372,16 +1380,16 @@
         <v>1026</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -1392,16 +1400,16 @@
         <v>1027</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F29" s="1">
         <v>1</v>
@@ -1412,13 +1420,13 @@
         <v>1028</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>6</v>
@@ -1432,16 +1440,16 @@
         <v>1029</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" s="1">
         <v>1</v>
@@ -1452,16 +1460,16 @@
         <v>1030</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -1472,16 +1480,16 @@
         <v>1031</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F33" s="1">
         <v>1</v>
@@ -1492,16 +1500,16 @@
         <v>1032</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
@@ -1512,16 +1520,16 @@
         <v>1033</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" s="1">
         <v>1</v>
@@ -1532,16 +1540,16 @@
         <v>1034</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -1552,16 +1560,16 @@
         <v>1035</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F37" s="1">
         <v>1</v>
@@ -1572,16 +1580,16 @@
         <v>1036</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -1592,16 +1600,16 @@
         <v>1037</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F39" s="1">
         <v>1</v>
@@ -1612,16 +1620,16 @@
         <v>1038</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -1632,16 +1640,16 @@
         <v>1039</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F41" s="1">
         <v>1</v>
@@ -1652,16 +1660,16 @@
         <v>1040</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F42" s="1">
         <v>1</v>
@@ -1672,13 +1680,13 @@
         <v>1041</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>6</v>
@@ -1692,16 +1700,16 @@
         <v>1042</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -1712,16 +1720,16 @@
         <v>1043</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F45" s="1">
         <v>1</v>
@@ -1732,16 +1740,16 @@
         <v>1044</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -1752,16 +1760,16 @@
         <v>1045</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -1772,16 +1780,16 @@
         <v>1046</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -1792,16 +1800,16 @@
         <v>1047</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F49" s="1">
         <v>1</v>
@@ -1812,16 +1820,16 @@
         <v>1048</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F50" s="1">
         <v>1</v>
@@ -1832,16 +1840,16 @@
         <v>1049</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F51" s="1">
         <v>1</v>
@@ -1852,18 +1860,38 @@
         <v>1050</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="7">
+        <v>1051</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="1">
         <v>0</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/Conversation_Data.xlsx
+++ b/GameDesign/ExcelData/Conversation_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D0DECC-A5AA-4267-A7F5-21614CA392B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3EE662-4435-4BB2-8F93-0352D763F3A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="170">
   <si>
     <t>long</t>
   </si>
@@ -434,6 +434,223 @@
   </si>
   <si>
     <t>I need some rest.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Halo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Private… Hey, Private, are you okay?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss, what’s with the ‘Private’ bullshit, huh?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1003,1001]</t>
+  </si>
+  <si>
+    <t>[1003,1001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am your officer.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You know my nickname, why don’t you use it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It’s ‘Halo’, right?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you serious? Do you know what I Goddamn did to earn that nickname?!?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No, I don’t recall.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My gun crew and I saved all those POWs! That raid never would have escaped without us guarding that riverbank.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We were the best machine gun crew, and they split me from my unit?! To set up walls and barbed wire! This hill is a waste of my time…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(I’ll let it slide tonight, but that private needs to learn a lesson in subordination… And some humility wouldn’t hurt.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You okay, Wetherall?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1002,1001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wetherall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>They got hot food. You can smell it from here.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you dance, Wetherall?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your feet. Where are your boots?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boots were shot to Hell. The socks are working, though.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Come here. I hope you’re a size nine.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">These are officer’s boots… </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You’re our best shot. You can’t be running around in bare feet!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thank you, Boss.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You all right, Kicks?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1004,1001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kicks!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What were you doing?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Praying.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To keep healing everyone. To keep caring… with all my heart.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Never figured Kicks for the religious type? Or that being a medic was so draining?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kicks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[59]</t>
+  </si>
+  <si>
+    <t>[51]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[52]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[53]</t>
+  </si>
+  <si>
+    <t>[54]</t>
+  </si>
+  <si>
+    <t>[55]</t>
+  </si>
+  <si>
+    <t>[56]</t>
+  </si>
+  <si>
+    <t>[57]</t>
+  </si>
+  <si>
+    <t>[58]</t>
+  </si>
+  <si>
+    <t>[62]</t>
+  </si>
+  <si>
+    <t>[63]</t>
+  </si>
+  <si>
+    <t>[64]</t>
+  </si>
+  <si>
+    <t>[65]</t>
+  </si>
+  <si>
+    <t>[66]</t>
+  </si>
+  <si>
+    <t>[67]</t>
+  </si>
+  <si>
+    <t>[68]</t>
+  </si>
+  <si>
+    <t>[72]</t>
+  </si>
+  <si>
+    <t>[73]</t>
+  </si>
+  <si>
+    <t>[74]</t>
+  </si>
+  <si>
+    <t>[75]</t>
+  </si>
+  <si>
+    <t>[60]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[61]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[70]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[71]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -819,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1895,6 +2112,573 @@
         <v>0</v>
       </c>
     </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>1052</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F54" s="1">
+        <f>IF(B54="Boss",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>1053</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" ref="F55:F80" si="0">IF(B55="Boss",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>1054</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>1055</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>1056</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>1057</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>1058</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>1059</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>1060</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>1061</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="7">
+        <v>1062</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>1063</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>1064</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F66" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>1065</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>1066</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F68" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>1067</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F69" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>1068</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F70" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>1069</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F71" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>1070</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F72" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>1071</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="7">
+        <v>1072</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F74" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>1073</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F75" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>1074</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F76" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>1075</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F77" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>1076</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F78" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>1077</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F79" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>1078</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameDesign/ExcelData/Conversation_Data.xlsx
+++ b/GameDesign/ExcelData/Conversation_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3EE662-4435-4BB2-8F93-0352D763F3A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57A0A43-C759-488E-8F18-325EAB832C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21690" yWindow="4275" windowWidth="14175" windowHeight="8100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="248">
   <si>
     <t>long</t>
   </si>
@@ -651,6 +651,287 @@
   </si>
   <si>
     <t>[71]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wetherall</t>
+  </si>
+  <si>
+    <t>[1001,1001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feets doing OK?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not a problem. I ain’t coming off the line, Boss.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glad to have you with us, Echo. How are you adjusting?</t>
+  </si>
+  <si>
+    <t>Glad to have you with us, Echo. How are you adjusting?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1005,1001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You know I’ve never fired a weapon before today? I just man the radio. I’ve always had a weapon, but… never needed to shoot anyone.</t>
+  </si>
+  <si>
+    <t>Echo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dookie, I’m home!</t>
+  </si>
+  <si>
+    <t>Hahaha! Hey, you sound just like him!</t>
+  </si>
+  <si>
+    <t>Well, you performed admirably, given the circumstances. … Echo?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Echo. Eat it. Good. Perfect.</t>
+  </si>
+  <si>
+    <t>Hey, no, it’s okay…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It’s not! It’s not ‘okay’. We should’ve got to him.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Why are you taking it so personally? You didn’t know him… ?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What if it was you?! Wouldn’t you want to be rescued?! We don’t leave our people behind to get shot or blown up! Not again!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I should have saved Halo, Boss. I COULD have, I just… I’m sorry. I thought this time could be different.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(I’m sure there’s more that Echo is not telling me, but I’ll let him mourn for now.)</t>
+  </si>
+  <si>
+    <t>What are you two laughing about?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This guy is hilarious, Boss! Remember that old radio program, with the schoolteacher?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You asked me to move! I’m movin’... !</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hey, you do know it, Boss!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oh… err… the one when she’s dancing with her therapist?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Huh, maybe not.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I didn’t have much time for comedy programs growing up.</t>
+  </si>
+  <si>
+    <t>Trust us, it’s a riot!</t>
+  </si>
+  <si>
+    <t>How are you feeling, Halo?</t>
+  </si>
+  <si>
+    <t>Okay. Thanks for sending the new guy to come get me. If he hadn’t come for me…</t>
+  </si>
+  <si>
+    <t>Heroics seem a lot less important when you need someone else to be the hero, huh?</t>
+  </si>
+  <si>
+    <t>Yeah… the way I acted yesterday, I didn’t think anyone would come back for me. Maybe this hill isn’t so bad?</t>
+  </si>
+  <si>
+    <t>I hope this means that the next time I give you an order, you damn well follow it!</t>
+  </si>
+  <si>
+    <t>So that’s how it’s gonna be? Fine. You want a bunker thrown together, I’ll do it. Anything else? Go to Hell!</t>
+  </si>
+  <si>
+    <t>Never better! Doubt you all would have survived half as long today without my bunkers. I seriously think I could hold this hill by myself!</t>
+  </si>
+  <si>
+    <t>You and Echo really seem to be getting along well? Seems like he certainly respects your skills.</t>
+  </si>
+  <si>
+    <t>Yeah… I guess that’s true. Guess you’re not all so bad. It’s nice to have someone around who doesn’t ignore or mock me, you know?</t>
+  </si>
+  <si>
+    <t>Unlike you, Echo here understands that we are a TEAM. That we have a chain of command.</t>
+  </si>
+  <si>
+    <t>I literally cannot think of a situation where I would need any of you. I need to get back to my machine gun crew… get some ACTUAL work done.</t>
+  </si>
+  <si>
+    <t>Sorry, Kicks. Were you praying again?</t>
+  </si>
+  <si>
+    <t>You know, I never used to pray this much. No need for religion in oiling machines. Religion was my grandma’s thing. She was a faith healer.</t>
+  </si>
+  <si>
+    <t>Your grandmother was what?</t>
+  </si>
+  <si>
+    <t>Laid her hands on people and cured ‘em. Took away shingles, cancer, you name it.</t>
+  </si>
+  <si>
+    <t>Your grandma did that?</t>
+  </si>
+  <si>
+    <t>I remember she used to practice the mantras and vows a lot. Asked the gods to… pull out the pain and carry it away. That’s what she did.</t>
+  </si>
+  <si>
+    <t>Yeah, I guess she had to pray, then.</t>
+  </si>
+  <si>
+    <t>... I’m still trying to figure why they picked me for a medic.</t>
+  </si>
+  <si>
+    <t>One day, you’re a machinist. Snap of a finger and just like that you’re a medic.</t>
+  </si>
+  <si>
+    <t>It’s not a joke. I’ve had enough playing doctor.</t>
+  </si>
+  <si>
+    <t>No, it’s not a gift. The gods would never give such a painful thing.</t>
+  </si>
+  <si>
+    <t>Kicks?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sorry, Boss. I was… I was sleeping.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It’s New Year’s Eve! Come on, get up.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss. Picture of my girl.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Huh. Good-looking.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>She’s… She’s finished with me.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeah?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeah… got her letter before I shipped out here.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Just in time for New Year’s, huh?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Just in time for New Year’s…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oh shit, I almost forgot!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tobacco?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Where the Hell did you get those?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Happy New Year, fellas!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alright, have a go, you two.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oh, beautiful!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Echo, what are you doing?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But it’s New Year’s, Boss!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I’ve been a soldier for years. I know remaining here on the hill is the most strategic decision.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But my men and I shouldn’t have to die here. My first responsibility is keeping my men alive. And anyone staying on this hill was certainly going to die.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perhaps I should take that offer of surrender… ? Or we could retreat to a secondary line near HQ? We could still fight and be closer to reinforcements.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But surrender or retreat meant 2nd Platoon getting surrounded and annihilated. Whatever I chose, there would be consequences… and more death…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1005,1002]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But your touch calms and heals people. Like your grandma. Isn’t that a gift from the gods?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Okay…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘Okay, get up’, not ‘Okay, lie down’!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spartan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1006,1001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1002,1005]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -729,7 +1010,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -755,6 +1036,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1036,10 +1323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F287"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="E152" sqref="E152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2150,7 +2437,7 @@
         <v>148</v>
       </c>
       <c r="F55" s="1">
-        <f t="shared" ref="F55:F80" si="0">IF(B55="Boss",1,0)</f>
+        <f t="shared" ref="F55:F118" si="0">IF(B55="Boss",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2677,6 +2964,1997 @@
       <c r="F80" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="7">
+        <v>1079</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F81" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>1080</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F82" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>1081</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F83" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>1082</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F84" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+      <c r="A85" s="7">
+        <v>1083</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F85" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>1084</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F86" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>1085</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F87" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>1086</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F88" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>1087</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F89" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>1088</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>1089</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>1090</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F92" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>1091</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F93" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>1092</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F94" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>1093</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F95" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>1094</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F96" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>1095</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F97" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>1096</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F98" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>1097</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F99" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>1098</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F100" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>1099</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F101" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>1100</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F102" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>1101</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F103" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>1102</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F104" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>1103</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>1104</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F106" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>1105</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F107" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>1106</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F108" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>1107</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F109" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>1108</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F110" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>1109</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F111" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>1110</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F112" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>1111</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F113" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>1112</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F114" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>1113</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F115" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="7">
+        <v>1114</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F116" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>1115</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F117" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>1116</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F118" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>1117</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F119" s="1">
+        <f t="shared" ref="F119:F157" si="1">IF(B119="Boss",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>1118</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F120" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>1119</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F121" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>1120</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F122" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>1121</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F123" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>1122</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F124" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>1123</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F125" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>1124</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F126" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>1125</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F127" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>1126</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F128" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>1127</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F129" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>1128</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F130" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>1129</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F131" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>1130</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F132" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>1131</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F133" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>1132</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F134" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>1133</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F135" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>1134</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F136" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>1135</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F137" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>1136</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F138" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>1137</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F139" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>1138</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F140" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>1139</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F141" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>1140</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F142" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>1141</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F143" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>1142</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F144" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>1143</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F145" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>1144</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F146" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>1145</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F147" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>1146</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F148" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>1147</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F149" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>1148</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F150" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>1149</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F151" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>1150</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C152" t="s">
+        <v>174</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F152" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>1151</v>
+      </c>
+      <c r="F153" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>1152</v>
+      </c>
+      <c r="F154" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>1153</v>
+      </c>
+      <c r="F155" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>1154</v>
+      </c>
+      <c r="F156" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>1155</v>
+      </c>
+      <c r="F157" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" s="1">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" s="1">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" s="1">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222" s="1">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" s="1">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" s="1">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229" s="1">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232" s="1">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233" s="1">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234" s="1">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235" s="1">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236" s="1">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238" s="1">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239" s="1">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240" s="1">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247" s="1">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248" s="1">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249" s="1">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250" s="1">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251" s="1">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252" s="1">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253" s="1">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254" s="1">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255" s="1">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256" s="1">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257" s="1">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258" s="1">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259" s="1">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260" s="1">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A261" s="1">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A262" s="1">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A263" s="1">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A264" s="1">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A265" s="1">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A266" s="1">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A267" s="1">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A268" s="1">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A269" s="1">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A270" s="1">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A271" s="1">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A272" s="1">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A273" s="1">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A274" s="1">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A275" s="1">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A276" s="1">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A277" s="1">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A278" s="1">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A279" s="1">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A280" s="1">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A281" s="1">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A282" s="1">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A283" s="1">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A284" s="1">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A285" s="1">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A286" s="1">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A287" s="1">
+        <v>1285</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/Conversation_Data.xlsx
+++ b/GameDesign/ExcelData/Conversation_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57A0A43-C759-488E-8F18-325EAB832C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34493CCC-0975-4BDB-869A-7EF1158DAA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21690" yWindow="4275" windowWidth="14175" windowHeight="8100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="261">
   <si>
     <t>long</t>
   </si>
@@ -635,304 +633,350 @@
     <t>[74]</t>
   </si>
   <si>
+    <t>[60]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[61]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[70]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[71]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wetherall</t>
+  </si>
+  <si>
+    <t>[1001,1001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feets doing OK?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not a problem. I ain’t coming off the line, Boss.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glad to have you with us, Echo. How are you adjusting?</t>
+  </si>
+  <si>
+    <t>Glad to have you with us, Echo. How are you adjusting?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1005,1001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Echo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dookie, I’m home!</t>
+  </si>
+  <si>
+    <t>Hahaha! Hey, you sound just like him!</t>
+  </si>
+  <si>
+    <t>Well, you performed admirably, given the circumstances. … Echo?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Echo. Eat it. Good. Perfect.</t>
+  </si>
+  <si>
+    <t>Hey, no, it’s okay…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It’s not! It’s not ‘okay’. We should’ve got to him.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Why are you taking it so personally? You didn’t know him… ?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What if it was you?! Wouldn’t you want to be rescued?! We don’t leave our people behind to get shot or blown up! Not again!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I should have saved Halo, Boss. I COULD have, I just… I’m sorry. I thought this time could be different.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(I’m sure there’s more that Echo is not telling me, but I’ll let him mourn for now.)</t>
+  </si>
+  <si>
+    <t>What are you two laughing about?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This guy is hilarious, Boss! Remember that old radio program, with the schoolteacher?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You asked me to move! I’m movin’... !</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hey, you do know it, Boss!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oh… err… the one when she’s dancing with her therapist?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Huh, maybe not.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I didn’t have much time for comedy programs growing up.</t>
+  </si>
+  <si>
+    <t>Trust us, it’s a riot!</t>
+  </si>
+  <si>
+    <t>How are you feeling, Halo?</t>
+  </si>
+  <si>
+    <t>Okay. Thanks for sending the new guy to come get me. If he hadn’t come for me…</t>
+  </si>
+  <si>
+    <t>Heroics seem a lot less important when you need someone else to be the hero, huh?</t>
+  </si>
+  <si>
+    <t>Yeah… the way I acted yesterday, I didn’t think anyone would come back for me. Maybe this hill isn’t so bad?</t>
+  </si>
+  <si>
+    <t>I hope this means that the next time I give you an order, you damn well follow it!</t>
+  </si>
+  <si>
+    <t>So that’s how it’s gonna be? Fine. You want a bunker thrown together, I’ll do it. Anything else? Go to Hell!</t>
+  </si>
+  <si>
+    <t>Never better! Doubt you all would have survived half as long today without my bunkers. I seriously think I could hold this hill by myself!</t>
+  </si>
+  <si>
+    <t>You and Echo really seem to be getting along well? Seems like he certainly respects your skills.</t>
+  </si>
+  <si>
+    <t>Yeah… I guess that’s true. Guess you’re not all so bad. It’s nice to have someone around who doesn’t ignore or mock me, you know?</t>
+  </si>
+  <si>
+    <t>Unlike you, Echo here understands that we are a TEAM. That we have a chain of command.</t>
+  </si>
+  <si>
+    <t>I literally cannot think of a situation where I would need any of you. I need to get back to my machine gun crew… get some ACTUAL work done.</t>
+  </si>
+  <si>
+    <t>Sorry, Kicks. Were you praying again?</t>
+  </si>
+  <si>
+    <t>You know, I never used to pray this much. No need for religion in oiling machines. Religion was my grandma’s thing. She was a faith healer.</t>
+  </si>
+  <si>
+    <t>Your grandmother was what?</t>
+  </si>
+  <si>
+    <t>Laid her hands on people and cured ‘em. Took away shingles, cancer, you name it.</t>
+  </si>
+  <si>
+    <t>Your grandma did that?</t>
+  </si>
+  <si>
+    <t>I remember she used to practice the mantras and vows a lot. Asked the gods to… pull out the pain and carry it away. That’s what she did.</t>
+  </si>
+  <si>
+    <t>Yeah, I guess she had to pray, then.</t>
+  </si>
+  <si>
+    <t>... I’m still trying to figure why they picked me for a medic.</t>
+  </si>
+  <si>
+    <t>One day, you’re a machinist. Snap of a finger and just like that you’re a medic.</t>
+  </si>
+  <si>
+    <t>It’s not a joke. I’ve had enough playing doctor.</t>
+  </si>
+  <si>
+    <t>No, it’s not a gift. The gods would never give such a painful thing.</t>
+  </si>
+  <si>
+    <t>Kicks?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sorry, Boss. I was… I was sleeping.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It’s New Year’s Eve! Come on, get up.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss. Picture of my girl.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Huh. Good-looking.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>She’s… She’s finished with me.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeah?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeah… got her letter before I shipped out here.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Just in time for New Year’s, huh?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Just in time for New Year’s…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oh shit, I almost forgot!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tobacco?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Where the Hell did you get those?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Happy New Year, fellas!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alright, have a go, you two.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oh, beautiful!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Echo, what are you doing?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But it’s New Year’s, Boss!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I’ve been a soldier for years. I know remaining here on the hill is the most strategic decision.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But my men and I shouldn’t have to die here. My first responsibility is keeping my men alive. And anyone staying on this hill was certainly going to die.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perhaps I should take that offer of surrender… ? Or we could retreat to a secondary line near HQ? We could still fight and be closer to reinforcements.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But surrender or retreat meant 2nd Platoon getting surrounded and annihilated. Whatever I chose, there would be consequences… and more death…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1005,1002]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But your touch calms and heals people. Like your grandma. Isn’t that a gift from the gods?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Okay…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘Okay, get up’, not ‘Okay, lie down’!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spartan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1006,1001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1002,1005]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>[75]</t>
-  </si>
-  <si>
-    <t>[60]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[61]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[70]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[71]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wetherall</t>
-  </si>
-  <si>
-    <t>[1001,1001]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Feets doing OK?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Not a problem. I ain’t coming off the line, Boss.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Glad to have you with us, Echo. How are you adjusting?</t>
-  </si>
-  <si>
-    <t>Glad to have you with us, Echo. How are you adjusting?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1005,1001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[76]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[77]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[78]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[79]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>You know I’ve never fired a weapon before today? I just man the radio. I’ve always had a weapon, but… never needed to shoot anyone.</t>
-  </si>
-  <si>
-    <t>Echo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dookie, I’m home!</t>
-  </si>
-  <si>
-    <t>Hahaha! Hey, you sound just like him!</t>
-  </si>
-  <si>
-    <t>Well, you performed admirably, given the circumstances. … Echo?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Echo. Eat it. Good. Perfect.</t>
-  </si>
-  <si>
-    <t>Hey, no, it’s okay…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>It’s not! It’s not ‘okay’. We should’ve got to him.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Why are you taking it so personally? You didn’t know him… ?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>What if it was you?! Wouldn’t you want to be rescued?! We don’t leave our people behind to get shot or blown up! Not again!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I should have saved Halo, Boss. I COULD have, I just… I’m sorry. I thought this time could be different.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(I’m sure there’s more that Echo is not telling me, but I’ll let him mourn for now.)</t>
-  </si>
-  <si>
-    <t>What are you two laughing about?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This guy is hilarious, Boss! Remember that old radio program, with the schoolteacher?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>You asked me to move! I’m movin’... !</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hey, you do know it, Boss!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oh… err… the one when she’s dancing with her therapist?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Huh, maybe not.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I didn’t have much time for comedy programs growing up.</t>
-  </si>
-  <si>
-    <t>Trust us, it’s a riot!</t>
-  </si>
-  <si>
-    <t>How are you feeling, Halo?</t>
-  </si>
-  <si>
-    <t>Okay. Thanks for sending the new guy to come get me. If he hadn’t come for me…</t>
-  </si>
-  <si>
-    <t>Heroics seem a lot less important when you need someone else to be the hero, huh?</t>
-  </si>
-  <si>
-    <t>Yeah… the way I acted yesterday, I didn’t think anyone would come back for me. Maybe this hill isn’t so bad?</t>
-  </si>
-  <si>
-    <t>I hope this means that the next time I give you an order, you damn well follow it!</t>
-  </si>
-  <si>
-    <t>So that’s how it’s gonna be? Fine. You want a bunker thrown together, I’ll do it. Anything else? Go to Hell!</t>
-  </si>
-  <si>
-    <t>Never better! Doubt you all would have survived half as long today without my bunkers. I seriously think I could hold this hill by myself!</t>
-  </si>
-  <si>
-    <t>You and Echo really seem to be getting along well? Seems like he certainly respects your skills.</t>
-  </si>
-  <si>
-    <t>Yeah… I guess that’s true. Guess you’re not all so bad. It’s nice to have someone around who doesn’t ignore or mock me, you know?</t>
-  </si>
-  <si>
-    <t>Unlike you, Echo here understands that we are a TEAM. That we have a chain of command.</t>
-  </si>
-  <si>
-    <t>I literally cannot think of a situation where I would need any of you. I need to get back to my machine gun crew… get some ACTUAL work done.</t>
-  </si>
-  <si>
-    <t>Sorry, Kicks. Were you praying again?</t>
-  </si>
-  <si>
-    <t>You know, I never used to pray this much. No need for religion in oiling machines. Religion was my grandma’s thing. She was a faith healer.</t>
-  </si>
-  <si>
-    <t>Your grandmother was what?</t>
-  </si>
-  <si>
-    <t>Laid her hands on people and cured ‘em. Took away shingles, cancer, you name it.</t>
-  </si>
-  <si>
-    <t>Your grandma did that?</t>
-  </si>
-  <si>
-    <t>I remember she used to practice the mantras and vows a lot. Asked the gods to… pull out the pain and carry it away. That’s what she did.</t>
-  </si>
-  <si>
-    <t>Yeah, I guess she had to pray, then.</t>
-  </si>
-  <si>
-    <t>... I’m still trying to figure why they picked me for a medic.</t>
-  </si>
-  <si>
-    <t>One day, you’re a machinist. Snap of a finger and just like that you’re a medic.</t>
-  </si>
-  <si>
-    <t>It’s not a joke. I’ve had enough playing doctor.</t>
-  </si>
-  <si>
-    <t>No, it’s not a gift. The gods would never give such a painful thing.</t>
-  </si>
-  <si>
-    <t>Kicks?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sorry, Boss. I was… I was sleeping.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>It’s New Year’s Eve! Come on, get up.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss. Picture of my girl.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Huh. Good-looking.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>She’s… She’s finished with me.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yeah?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yeah… got her letter before I shipped out here.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Just in time for New Year’s, huh?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Just in time for New Year’s…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oh shit, I almost forgot!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tobacco?!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Where the Hell did you get those?!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Happy New Year, fellas!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alright, have a go, you two.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oh, beautiful!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Echo, what are you doing?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>But it’s New Year’s, Boss!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I’ve been a soldier for years. I know remaining here on the hill is the most strategic decision.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>But my men and I shouldn’t have to die here. My first responsibility is keeping my men alive. And anyone staying on this hill was certainly going to die.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Perhaps I should take that offer of surrender… ? Or we could retreat to a secondary line near HQ? We could still fight and be closer to reinforcements.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>But surrender or retreat meant 2nd Platoon getting surrounded and annihilated. Whatever I chose, there would be consequences… and more death…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1005,1002]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>But your touch calms and heals people. Like your grandma. Isn’t that a gift from the gods?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Okay…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>‘Okay, get up’, not ‘Okay, lie down’!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spartan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1006,1001]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1002,1005]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[80]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[81]</t>
+  </si>
+  <si>
+    <t>[82]</t>
+  </si>
+  <si>
+    <t>[83]</t>
+  </si>
+  <si>
+    <t>[84]</t>
+  </si>
+  <si>
+    <t>[85]</t>
+  </si>
+  <si>
+    <t>[86]</t>
+  </si>
+  <si>
+    <t>[87]</t>
+  </si>
+  <si>
+    <t>[88]</t>
   </si>
 </sst>
 </file>
@@ -1325,21 +1369,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="E152" sqref="E152"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.375" customWidth="1"/>
-    <col min="4" max="4" width="33.125" customWidth="1"/>
-    <col min="5" max="5" width="31.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="19.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" customWidth="1"/>
+    <col min="5" max="5" width="31.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1359,7 +1403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1379,7 +1423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
@@ -1399,7 +1443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
@@ -1419,7 +1463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1003</v>
       </c>
@@ -1439,7 +1483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>1004</v>
       </c>
@@ -1459,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1005</v>
       </c>
@@ -1479,7 +1523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1006</v>
       </c>
@@ -1499,7 +1543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1007</v>
       </c>
@@ -1519,7 +1563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1008</v>
       </c>
@@ -1539,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1009</v>
       </c>
@@ -1559,7 +1603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1010</v>
       </c>
@@ -1579,7 +1623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1011</v>
       </c>
@@ -1599,7 +1643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1012</v>
       </c>
@@ -1619,7 +1663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1013</v>
       </c>
@@ -1639,7 +1683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>1014</v>
       </c>
@@ -1659,7 +1703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1015</v>
       </c>
@@ -1679,7 +1723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1016</v>
       </c>
@@ -1699,7 +1743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1017</v>
       </c>
@@ -1719,7 +1763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1018</v>
       </c>
@@ -1739,7 +1783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1019</v>
       </c>
@@ -1759,7 +1803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1020</v>
       </c>
@@ -1779,7 +1823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1021</v>
       </c>
@@ -1799,7 +1843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1022</v>
       </c>
@@ -1819,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1023</v>
       </c>
@@ -1839,7 +1883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1024</v>
       </c>
@@ -1859,7 +1903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1025</v>
       </c>
@@ -1879,7 +1923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1026</v>
       </c>
@@ -1899,7 +1943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1027</v>
       </c>
@@ -1919,7 +1963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1028</v>
       </c>
@@ -1939,7 +1983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>1029</v>
       </c>
@@ -1959,7 +2003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1030</v>
       </c>
@@ -1979,7 +2023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1031</v>
       </c>
@@ -1999,7 +2043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1032</v>
       </c>
@@ -2019,7 +2063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1033</v>
       </c>
@@ -2039,7 +2083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1034</v>
       </c>
@@ -2059,7 +2103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1035</v>
       </c>
@@ -2079,7 +2123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1036</v>
       </c>
@@ -2099,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1037</v>
       </c>
@@ -2119,7 +2163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1038</v>
       </c>
@@ -2139,7 +2183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1039</v>
       </c>
@@ -2159,7 +2203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1040</v>
       </c>
@@ -2179,7 +2223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1041</v>
       </c>
@@ -2199,7 +2243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>1042</v>
       </c>
@@ -2219,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1043</v>
       </c>
@@ -2239,7 +2283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1044</v>
       </c>
@@ -2259,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1045</v>
       </c>
@@ -2279,7 +2323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1046</v>
       </c>
@@ -2299,7 +2343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1047</v>
       </c>
@@ -2319,7 +2363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1048</v>
       </c>
@@ -2339,7 +2383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>1049</v>
       </c>
@@ -2359,7 +2403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1050</v>
       </c>
@@ -2379,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>1051</v>
       </c>
@@ -2399,7 +2443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1052</v>
       </c>
@@ -2420,7 +2464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1053</v>
       </c>
@@ -2441,7 +2485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1054</v>
       </c>
@@ -2462,7 +2506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>1055</v>
       </c>
@@ -2483,7 +2527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1056</v>
       </c>
@@ -2504,7 +2548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1057</v>
       </c>
@@ -2525,7 +2569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1058</v>
       </c>
@@ -2546,7 +2590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1059</v>
       </c>
@@ -2567,7 +2611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1060</v>
       </c>
@@ -2588,7 +2632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>1061</v>
       </c>
@@ -2609,7 +2653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>1062</v>
       </c>
@@ -2623,14 +2667,14 @@
         <v>126</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1063</v>
       </c>
@@ -2644,14 +2688,14 @@
         <v>126</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F65" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1064</v>
       </c>
@@ -2672,7 +2716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1065</v>
       </c>
@@ -2693,7 +2737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1066</v>
       </c>
@@ -2714,7 +2758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>1067</v>
       </c>
@@ -2735,7 +2779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1068</v>
       </c>
@@ -2756,7 +2800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1069</v>
       </c>
@@ -2777,7 +2821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1070</v>
       </c>
@@ -2798,7 +2842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>1071</v>
       </c>
@@ -2819,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>1072</v>
       </c>
@@ -2833,14 +2877,14 @@
         <v>138</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F74" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>1073</v>
       </c>
@@ -2854,14 +2898,14 @@
         <v>138</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F75" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>1074</v>
       </c>
@@ -2882,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>1075</v>
       </c>
@@ -2903,7 +2947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>1076</v>
       </c>
@@ -2924,7 +2968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>1077</v>
       </c>
@@ -2938,14 +2982,14 @@
         <v>138</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>165</v>
+        <v>246</v>
       </c>
       <c r="F79" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>1078</v>
       </c>
@@ -2966,7 +3010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>1079</v>
       </c>
@@ -2979,12 +3023,15 @@
       <c r="D81" s="1" t="s">
         <v>126</v>
       </c>
+      <c r="E81" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="F81" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>1080</v>
       </c>
@@ -2997,12 +3044,15 @@
       <c r="D82" s="1" t="s">
         <v>126</v>
       </c>
+      <c r="E82" s="1" t="s">
+        <v>248</v>
+      </c>
       <c r="F82" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>1081</v>
       </c>
@@ -3010,35 +3060,41 @@
         <v>111</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>126</v>
       </c>
+      <c r="E83" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="F83" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>1082</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>126</v>
       </c>
+      <c r="E84" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="F84" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>1083</v>
       </c>
@@ -3046,35 +3102,41 @@
         <v>111</v>
       </c>
       <c r="C85" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>176</v>
+      <c r="E85" s="1" t="s">
+        <v>250</v>
       </c>
       <c r="F85" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>1084</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>177</v>
+        <v>251</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="F86" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>1085</v>
       </c>
@@ -3082,35 +3144,41 @@
         <v>111</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="F87" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>1086</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>254</v>
       </c>
       <c r="F88" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>1087</v>
       </c>
@@ -3118,17 +3186,20 @@
         <v>112</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="F89" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>1088</v>
       </c>
@@ -3136,17 +3207,20 @@
         <v>111</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="F90" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>1089</v>
       </c>
@@ -3154,35 +3228,41 @@
         <v>111</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="F91" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>1090</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="F92" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>1091</v>
       </c>
@@ -3190,53 +3270,59 @@
         <v>111</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="F93" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>1092</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="F94" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>1093</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F95" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>1094</v>
       </c>
@@ -3244,17 +3330,17 @@
         <v>111</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F96" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>1095</v>
       </c>
@@ -3262,7 +3348,7 @@
         <v>111</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>126</v>
@@ -3272,7 +3358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>1096</v>
       </c>
@@ -3280,7 +3366,7 @@
         <v>112</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>126</v>
@@ -3290,7 +3376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>1097</v>
       </c>
@@ -3298,35 +3384,35 @@
         <v>111</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F99" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>1098</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F100" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>1099</v>
       </c>
@@ -3334,35 +3420,35 @@
         <v>111</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F101" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>1100</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F102" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>1101</v>
       </c>
@@ -3370,35 +3456,35 @@
         <v>111</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F103" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>1102</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F104" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>1103</v>
       </c>
@@ -3406,17 +3492,17 @@
         <v>111</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F105" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>1104</v>
       </c>
@@ -3424,7 +3510,7 @@
         <v>112</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>126</v>
@@ -3434,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>1105</v>
       </c>
@@ -3442,7 +3528,7 @@
         <v>111</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>126</v>
@@ -3452,7 +3538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>1106</v>
       </c>
@@ -3460,7 +3546,7 @@
         <v>112</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>126</v>
@@ -3470,7 +3556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>1107</v>
       </c>
@@ -3478,7 +3564,7 @@
         <v>111</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>126</v>
@@ -3488,7 +3574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>1108</v>
       </c>
@@ -3496,7 +3582,7 @@
         <v>112</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>126</v>
@@ -3506,7 +3592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>1109</v>
       </c>
@@ -3514,7 +3600,7 @@
         <v>112</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>126</v>
@@ -3524,7 +3610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>1110</v>
       </c>
@@ -3532,7 +3618,7 @@
         <v>111</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>126</v>
@@ -3542,7 +3628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>1111</v>
       </c>
@@ -3550,7 +3636,7 @@
         <v>112</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>126</v>
@@ -3560,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>1112</v>
       </c>
@@ -3568,7 +3654,7 @@
         <v>111</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>126</v>
@@ -3578,7 +3664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>1113</v>
       </c>
@@ -3586,7 +3672,7 @@
         <v>112</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>126</v>
@@ -3596,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
         <v>1114</v>
       </c>
@@ -3604,7 +3690,7 @@
         <v>111</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>138</v>
@@ -3614,7 +3700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>1115</v>
       </c>
@@ -3622,7 +3708,7 @@
         <v>145</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>138</v>
@@ -3632,7 +3718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>1116</v>
       </c>
@@ -3640,7 +3726,7 @@
         <v>111</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>138</v>
@@ -3650,7 +3736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>1117</v>
       </c>
@@ -3658,7 +3744,7 @@
         <v>145</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>138</v>
@@ -3668,7 +3754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>1118</v>
       </c>
@@ -3676,7 +3762,7 @@
         <v>111</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>138</v>
@@ -3686,7 +3772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>1119</v>
       </c>
@@ -3694,7 +3780,7 @@
         <v>145</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>138</v>
@@ -3704,7 +3790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>1120</v>
       </c>
@@ -3712,7 +3798,7 @@
         <v>111</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>138</v>
@@ -3722,7 +3808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>1121</v>
       </c>
@@ -3730,7 +3816,7 @@
         <v>145</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>138</v>
@@ -3740,7 +3826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>1122</v>
       </c>
@@ -3748,7 +3834,7 @@
         <v>111</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>138</v>
@@ -3758,7 +3844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>1123</v>
       </c>
@@ -3766,7 +3852,7 @@
         <v>145</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>138</v>
@@ -3776,7 +3862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>1124</v>
       </c>
@@ -3784,7 +3870,7 @@
         <v>111</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>138</v>
@@ -3794,7 +3880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>1125</v>
       </c>
@@ -3802,7 +3888,7 @@
         <v>145</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>138</v>
@@ -3812,7 +3898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>1126</v>
       </c>
@@ -3820,7 +3906,7 @@
         <v>111</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>138</v>
@@ -3830,7 +3916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>1127</v>
       </c>
@@ -3838,7 +3924,7 @@
         <v>145</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>138</v>
@@ -3848,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>1128</v>
       </c>
@@ -3856,7 +3942,7 @@
         <v>111</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>138</v>
@@ -3866,7 +3952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>1129</v>
       </c>
@@ -3874,7 +3960,7 @@
         <v>145</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>138</v>
@@ -3884,7 +3970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>1130</v>
       </c>
@@ -3892,7 +3978,7 @@
         <v>111</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>138</v>
@@ -3902,25 +3988,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>1131</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F133" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>1132</v>
       </c>
@@ -3928,35 +4014,35 @@
         <v>111</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F134" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>1133</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F135" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>1134</v>
       </c>
@@ -3964,35 +4050,35 @@
         <v>111</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F136" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>1135</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F137" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>1136</v>
       </c>
@@ -4000,53 +4086,53 @@
         <v>111</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F138" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>1137</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F139" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>1138</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F140" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>1139</v>
       </c>
@@ -4054,17 +4140,17 @@
         <v>111</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F141" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>1140</v>
       </c>
@@ -4072,35 +4158,35 @@
         <v>112</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F142" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>1141</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F143" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>1142</v>
       </c>
@@ -4108,7 +4194,7 @@
         <v>111</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>126</v>
@@ -4118,7 +4204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>1143</v>
       </c>
@@ -4126,7 +4212,7 @@
         <v>112</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>126</v>
@@ -4136,7 +4222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>1144</v>
       </c>
@@ -4144,35 +4230,35 @@
         <v>111</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F146" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>1145</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F147" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>1146</v>
       </c>
@@ -4180,17 +4266,17 @@
         <v>111</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F148" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>1147</v>
       </c>
@@ -4198,17 +4284,17 @@
         <v>111</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F149" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>1148</v>
       </c>
@@ -4216,17 +4302,17 @@
         <v>111</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F150" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>1149</v>
       </c>
@@ -4234,17 +4320,17 @@
         <v>111</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F151" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>1150</v>
       </c>
@@ -4252,17 +4338,17 @@
         <v>111</v>
       </c>
       <c r="C152" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F152" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>1151</v>
       </c>
@@ -4271,7 +4357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>1152</v>
       </c>
@@ -4280,7 +4366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>1153</v>
       </c>
@@ -4289,7 +4375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>1154</v>
       </c>
@@ -4298,7 +4384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>1155</v>
       </c>
@@ -4307,652 +4393,652 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>1156</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>1157</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>1158</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>1159</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>1160</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>1161</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>1162</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>1163</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>1164</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>1165</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>1166</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>1167</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>1168</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>1169</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>1170</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>1171</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>1172</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>1173</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>1174</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>1175</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>1176</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>1177</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>1178</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>1179</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>1180</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>1181</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>1182</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>1183</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>1184</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>1185</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>1186</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>1187</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>1188</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>1189</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>1190</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>1191</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>1192</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>1193</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>1194</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>1195</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>1196</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>1197</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>1198</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>1199</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>1200</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>1201</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>1202</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>1203</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>1204</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>1205</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>1206</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>1207</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>1208</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>1209</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>1210</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>1211</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>1212</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>1213</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>1214</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>1215</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>1216</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>1217</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>1218</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>1219</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>1220</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>1221</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>1222</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>1223</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>1224</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>1225</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>1226</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>1227</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>1228</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>1229</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>1230</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>1231</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>1232</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>1233</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>1234</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>1235</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>1236</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>1237</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>1238</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>1239</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>1240</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>1241</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>1242</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>1243</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>1244</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>1245</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>1246</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>1247</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>1248</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>1249</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>1250</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>1251</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>1252</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>1253</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>1254</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>1255</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>1256</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>1257</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>1258</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>1259</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>1260</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>1261</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>1262</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>1263</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>1264</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>1265</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>1266</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>1267</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>1268</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>1269</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>1270</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>1271</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>1272</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>1273</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>1274</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>1275</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>1276</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>1277</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>1278</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>1279</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>1280</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>1281</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>1282</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>1283</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>1284</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>1285</v>
       </c>

--- a/GameDesign/ExcelData/Conversation_Data.xlsx
+++ b/GameDesign/ExcelData/Conversation_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34493CCC-0975-4BDB-869A-7EF1158DAA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F030E0B-A425-4814-9CDB-5FCE2CCA7631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="308">
   <si>
     <t>long</t>
   </si>
@@ -665,9 +665,6 @@
   </si>
   <si>
     <t>Glad to have you with us, Echo. How are you adjusting?</t>
-  </si>
-  <si>
-    <t>Glad to have you with us, Echo. How are you adjusting?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -778,205 +775,369 @@
     <t>I literally cannot think of a situation where I would need any of you. I need to get back to my machine gun crew… get some ACTUAL work done.</t>
   </si>
   <si>
+    <t>You know, I never used to pray this much. No need for religion in oiling machines. Religion was my grandma’s thing. She was a faith healer.</t>
+  </si>
+  <si>
+    <t>Your grandmother was what?</t>
+  </si>
+  <si>
+    <t>Laid her hands on people and cured ‘em. Took away shingles, cancer, you name it.</t>
+  </si>
+  <si>
+    <t>I remember she used to practice the mantras and vows a lot. Asked the gods to… pull out the pain and carry it away. That’s what she did.</t>
+  </si>
+  <si>
+    <t>... I’m still trying to figure why they picked me for a medic.</t>
+  </si>
+  <si>
+    <t>One day, you’re a machinist. Snap of a finger and just like that you’re a medic.</t>
+  </si>
+  <si>
+    <t>It’s not a joke. I’ve had enough playing doctor.</t>
+  </si>
+  <si>
+    <t>No, it’s not a gift. The gods would never give such a painful thing.</t>
+  </si>
+  <si>
+    <t>Kicks?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sorry, Boss. I was… I was sleeping.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It’s New Year’s Eve! Come on, get up.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss. Picture of my girl.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Huh. Good-looking.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>She’s… She’s finished with me.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeah?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeah… got her letter before I shipped out here.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Just in time for New Year’s, huh?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Just in time for New Year’s…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oh shit, I almost forgot!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tobacco?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Where the Hell did you get those?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Happy New Year, fellas!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alright, have a go, you two.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oh, beautiful!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Echo, what are you doing?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But it’s New Year’s, Boss!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I’ve been a soldier for years. I know remaining here on the hill is the most strategic decision.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But my men and I shouldn’t have to die here. My first responsibility is keeping my men alive. And anyone staying on this hill was certainly going to die.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perhaps I should take that offer of surrender… ? Or we could retreat to a secondary line near HQ? We could still fight and be closer to reinforcements.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But surrender or retreat meant 2nd Platoon getting surrounded and annihilated. Whatever I chose, there would be consequences… and more death…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1005,1002]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But your touch calms and heals people. Like your grandma. Isn’t that a gift from the gods?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Okay…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘Okay, get up’, not ‘Okay, lie down’!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spartan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1006,1001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1002,1005]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[75]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[76]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[77]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[78]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[79]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You know I’ve never fired a weapon before today? I just man the radio. I’ve always had a weapon, but… never needed to shoot anyone.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[80]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[81]</t>
+  </si>
+  <si>
+    <t>[82]</t>
+  </si>
+  <si>
+    <t>[83]</t>
+  </si>
+  <si>
+    <t>[84]</t>
+  </si>
+  <si>
+    <t>[85]</t>
+  </si>
+  <si>
+    <t>[86]</t>
+  </si>
+  <si>
+    <t>[87]</t>
+  </si>
+  <si>
+    <t>[88]</t>
+  </si>
+  <si>
+    <t>[89]</t>
+  </si>
+  <si>
+    <t>[90]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[91,92,93]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[94]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[95]</t>
+  </si>
+  <si>
+    <t>[96]</t>
+  </si>
+  <si>
+    <t>[97]</t>
+  </si>
+  <si>
+    <t>[98]</t>
+  </si>
+  <si>
+    <t>[99]</t>
+  </si>
+  <si>
+    <t>[100]</t>
+  </si>
+  <si>
+    <t>[101,102]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[103]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[104]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[115]</t>
+  </si>
+  <si>
+    <t>[105,106]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[107]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[108]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Sorry, Kicks. Were you praying again?</t>
-  </si>
-  <si>
-    <t>You know, I never used to pray this much. No need for religion in oiling machines. Religion was my grandma’s thing. She was a faith healer.</t>
-  </si>
-  <si>
-    <t>Your grandmother was what?</t>
-  </si>
-  <si>
-    <t>Laid her hands on people and cured ‘em. Took away shingles, cancer, you name it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[109]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[110]</t>
+  </si>
+  <si>
+    <t>[111]</t>
+  </si>
+  <si>
+    <t>[112]</t>
   </si>
   <si>
     <t>Your grandma did that?</t>
-  </si>
-  <si>
-    <t>I remember she used to practice the mantras and vows a lot. Asked the gods to… pull out the pain and carry it away. That’s what she did.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[113]</t>
+  </si>
+  <si>
+    <t>[114]</t>
   </si>
   <si>
     <t>Yeah, I guess she had to pray, then.</t>
-  </si>
-  <si>
-    <t>... I’m still trying to figure why they picked me for a medic.</t>
-  </si>
-  <si>
-    <t>One day, you’re a machinist. Snap of a finger and just like that you’re a medic.</t>
-  </si>
-  <si>
-    <t>It’s not a joke. I’ve had enough playing doctor.</t>
-  </si>
-  <si>
-    <t>No, it’s not a gift. The gods would never give such a painful thing.</t>
-  </si>
-  <si>
-    <t>Kicks?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sorry, Boss. I was… I was sleeping.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>It’s New Year’s Eve! Come on, get up.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss. Picture of my girl.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Huh. Good-looking.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>She’s… She’s finished with me.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yeah?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yeah… got her letter before I shipped out here.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Just in time for New Year’s, huh?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Just in time for New Year’s…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oh shit, I almost forgot!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tobacco?!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Where the Hell did you get those?!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Happy New Year, fellas!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alright, have a go, you two.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oh, beautiful!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Echo, what are you doing?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>But it’s New Year’s, Boss!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I’ve been a soldier for years. I know remaining here on the hill is the most strategic decision.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>But my men and I shouldn’t have to die here. My first responsibility is keeping my men alive. And anyone staying on this hill was certainly going to die.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Perhaps I should take that offer of surrender… ? Or we could retreat to a secondary line near HQ? We could still fight and be closer to reinforcements.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>But surrender or retreat meant 2nd Platoon getting surrounded and annihilated. Whatever I chose, there would be consequences… and more death…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1005,1002]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>But your touch calms and heals people. Like your grandma. Isn’t that a gift from the gods?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Okay…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>‘Okay, get up’, not ‘Okay, lie down’!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spartan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1006,1001]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1002,1005]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[75]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[76]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[77]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[78]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[79]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>You know I’ve never fired a weapon before today? I just man the radio. I’ve always had a weapon, but… never needed to shoot anyone.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[80]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[81]</t>
-  </si>
-  <si>
-    <t>[82]</t>
-  </si>
-  <si>
-    <t>[83]</t>
-  </si>
-  <si>
-    <t>[84]</t>
-  </si>
-  <si>
-    <t>[85]</t>
-  </si>
-  <si>
-    <t>[86]</t>
-  </si>
-  <si>
-    <t>[87]</t>
-  </si>
-  <si>
-    <t>[88]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[116]</t>
+  </si>
+  <si>
+    <t>[117]</t>
+  </si>
+  <si>
+    <t>[118]</t>
+  </si>
+  <si>
+    <t>[119]</t>
+  </si>
+  <si>
+    <t>[120]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[121]</t>
+  </si>
+  <si>
+    <t>[122]</t>
+  </si>
+  <si>
+    <t>[123]</t>
+  </si>
+  <si>
+    <t>[124]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[126]</t>
+  </si>
+  <si>
+    <t>[127]</t>
+  </si>
+  <si>
+    <t>[128]</t>
+  </si>
+  <si>
+    <t>[129]</t>
+  </si>
+  <si>
+    <t>[125]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[130]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[131]</t>
+  </si>
+  <si>
+    <t>[132]</t>
+  </si>
+  <si>
+    <t>[133]</t>
+  </si>
+  <si>
+    <t>[134]</t>
+  </si>
+  <si>
+    <t>[135]</t>
+  </si>
+  <si>
+    <t>[136]</t>
+  </si>
+  <si>
+    <t>[137]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[138]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[139]</t>
+  </si>
+  <si>
+    <t>[140,141,142]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1367,17 +1528,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F287"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D149" sqref="D149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="19.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.33203125" customWidth="1"/>
+    <col min="3" max="3" width="55.33203125" customWidth="1"/>
     <col min="4" max="4" width="33.109375" customWidth="1"/>
     <col min="5" max="5" width="31.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="30.21875" style="1" customWidth="1"/>
@@ -2982,7 +3143,7 @@
         <v>138</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F79" s="1">
         <f t="shared" si="0"/>
@@ -3024,7 +3185,7 @@
         <v>126</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F81" s="1">
         <f t="shared" si="0"/>
@@ -3045,7 +3206,7 @@
         <v>126</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F82" s="1">
         <f t="shared" si="0"/>
@@ -3066,7 +3227,7 @@
         <v>126</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F83" s="1">
         <f t="shared" si="0"/>
@@ -3102,13 +3263,13 @@
         <v>111</v>
       </c>
       <c r="C85" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="E85" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F85" s="1">
         <f t="shared" si="0"/>
@@ -3120,16 +3281,16 @@
         <v>1084</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F86" s="1">
         <f t="shared" si="0"/>
@@ -3144,13 +3305,13 @@
         <v>111</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F87" s="1">
         <f t="shared" si="0"/>
@@ -3162,16 +3323,16 @@
         <v>1086</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C88" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C88" s="11" t="s">
-        <v>177</v>
-      </c>
       <c r="D88" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F88" s="1">
         <f t="shared" si="0"/>
@@ -3186,13 +3347,13 @@
         <v>112</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F89" s="1">
         <f t="shared" si="0"/>
@@ -3207,13 +3368,13 @@
         <v>111</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F90" s="1">
         <f t="shared" si="0"/>
@@ -3228,13 +3389,13 @@
         <v>111</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F91" s="1">
         <f t="shared" si="0"/>
@@ -3246,16 +3407,16 @@
         <v>1090</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F92" s="1">
         <f t="shared" si="0"/>
@@ -3270,13 +3431,13 @@
         <v>111</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F93" s="1">
         <f t="shared" si="0"/>
@@ -3288,16 +3449,16 @@
         <v>1092</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F94" s="1">
         <f t="shared" si="0"/>
@@ -3309,13 +3470,16 @@
         <v>1093</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="F95" s="1">
         <f t="shared" si="0"/>
@@ -3330,28 +3494,34 @@
         <v>111</v>
       </c>
       <c r="C96" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F96" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="7">
+        <v>1095</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C97" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F96" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>1095</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C97" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>126</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="F97" s="1">
         <f t="shared" si="0"/>
@@ -3366,10 +3536,13 @@
         <v>112</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>126</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="F98" s="1">
         <f t="shared" si="0"/>
@@ -3384,10 +3557,13 @@
         <v>111</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="F99" s="1">
         <f t="shared" si="0"/>
@@ -3399,13 +3575,16 @@
         <v>1098</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="F100" s="1">
         <f t="shared" si="0"/>
@@ -3420,10 +3599,13 @@
         <v>111</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>262</v>
       </c>
       <c r="F101" s="1">
         <f t="shared" si="0"/>
@@ -3435,13 +3617,16 @@
         <v>1100</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="F102" s="1">
         <f t="shared" si="0"/>
@@ -3456,10 +3641,13 @@
         <v>111</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="F103" s="1">
         <f t="shared" si="0"/>
@@ -3471,13 +3659,16 @@
         <v>1102</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="F104" s="1">
         <f t="shared" si="0"/>
@@ -3492,10 +3683,13 @@
         <v>111</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="F105" s="1">
         <f t="shared" si="0"/>
@@ -3510,10 +3704,13 @@
         <v>112</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>126</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="F106" s="1">
         <f t="shared" si="0"/>
@@ -3528,10 +3725,13 @@
         <v>111</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>126</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="F107" s="1">
         <f t="shared" si="0"/>
@@ -3546,10 +3746,13 @@
         <v>112</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>126</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F108" s="1">
         <f t="shared" si="0"/>
@@ -3564,10 +3767,13 @@
         <v>111</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>126</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="F109" s="1">
         <f t="shared" si="0"/>
@@ -3582,28 +3788,34 @@
         <v>112</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>126</v>
       </c>
+      <c r="E110" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="F110" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
+      <c r="A111" s="7">
         <v>1109</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>126</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="F111" s="1">
         <f t="shared" si="0"/>
@@ -3618,10 +3830,13 @@
         <v>111</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>126</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="F112" s="1">
         <f t="shared" si="0"/>
@@ -3636,10 +3851,13 @@
         <v>112</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>126</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F113" s="1">
         <f t="shared" si="0"/>
@@ -3654,10 +3872,13 @@
         <v>111</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>126</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>273</v>
       </c>
       <c r="F114" s="1">
         <f t="shared" si="0"/>
@@ -3672,10 +3893,13 @@
         <v>112</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>126</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F115" s="1">
         <f t="shared" si="0"/>
@@ -3690,10 +3914,13 @@
         <v>111</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>206</v>
+        <v>274</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>138</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="F116" s="1">
         <f t="shared" si="0"/>
@@ -3708,10 +3935,13 @@
         <v>145</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>138</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>276</v>
       </c>
       <c r="F117" s="1">
         <f t="shared" si="0"/>
@@ -3726,10 +3956,13 @@
         <v>111</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>138</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="F118" s="1">
         <f t="shared" si="0"/>
@@ -3744,13 +3977,16 @@
         <v>145</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="E119" s="1" t="s">
+        <v>278</v>
+      </c>
       <c r="F119" s="1">
-        <f t="shared" ref="F119:F157" si="1">IF(B119="Boss",1,0)</f>
+        <f t="shared" ref="F119:F151" si="1">IF(B119="Boss",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3762,10 +3998,13 @@
         <v>111</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>210</v>
+        <v>279</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>138</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F120" s="1">
         <f t="shared" si="1"/>
@@ -3780,10 +4019,13 @@
         <v>145</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>138</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="F121" s="1">
         <f t="shared" si="1"/>
@@ -3798,10 +4040,13 @@
         <v>111</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>212</v>
+        <v>282</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>138</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>270</v>
       </c>
       <c r="F122" s="1">
         <f t="shared" si="1"/>
@@ -3816,10 +4061,13 @@
         <v>145</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>138</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="F123" s="1">
         <f t="shared" si="1"/>
@@ -3834,10 +4082,13 @@
         <v>111</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>138</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="F124" s="1">
         <f t="shared" si="1"/>
@@ -3852,10 +4103,13 @@
         <v>145</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>138</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>285</v>
       </c>
       <c r="F125" s="1">
         <f t="shared" si="1"/>
@@ -3870,10 +4124,13 @@
         <v>111</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>138</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="F126" s="1">
         <f t="shared" si="1"/>
@@ -3888,28 +4145,34 @@
         <v>145</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="E127" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="F127" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
+      <c r="A128" s="7">
         <v>1126</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>111</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>138</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="F128" s="1">
         <f t="shared" si="1"/>
@@ -3924,10 +4187,13 @@
         <v>145</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>138</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>288</v>
       </c>
       <c r="F129" s="1">
         <f t="shared" si="1"/>
@@ -3942,10 +4208,13 @@
         <v>111</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>138</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>289</v>
       </c>
       <c r="F130" s="1">
         <f t="shared" si="1"/>
@@ -3960,10 +4229,13 @@
         <v>145</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>138</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>290</v>
       </c>
       <c r="F131" s="1">
         <f t="shared" si="1"/>
@@ -3978,28 +4250,34 @@
         <v>111</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="E132" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="F132" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
+      <c r="A133" s="7">
         <v>1131</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>291</v>
       </c>
       <c r="F133" s="1">
         <f t="shared" si="1"/>
@@ -4014,10 +4292,13 @@
         <v>111</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="F134" s="1">
         <f t="shared" si="1"/>
@@ -4029,13 +4310,16 @@
         <v>1133</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="F135" s="1">
         <f t="shared" si="1"/>
@@ -4050,10 +4334,13 @@
         <v>111</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="F136" s="1">
         <f t="shared" si="1"/>
@@ -4065,13 +4352,16 @@
         <v>1135</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>294</v>
       </c>
       <c r="F137" s="1">
         <f t="shared" si="1"/>
@@ -4086,10 +4376,13 @@
         <v>111</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="F138" s="1">
         <f t="shared" si="1"/>
@@ -4101,13 +4394,16 @@
         <v>1137</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F139" s="1">
         <f t="shared" si="1"/>
@@ -4115,17 +4411,20 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
+      <c r="A140" s="7">
         <v>1138</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="F140" s="1">
         <f t="shared" si="1"/>
@@ -4140,10 +4439,13 @@
         <v>111</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>298</v>
       </c>
       <c r="F141" s="1">
         <f t="shared" si="1"/>
@@ -4158,10 +4460,13 @@
         <v>112</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="F142" s="1">
         <f t="shared" si="1"/>
@@ -4173,13 +4478,16 @@
         <v>1141</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="F143" s="1">
         <f t="shared" si="1"/>
@@ -4194,10 +4502,13 @@
         <v>111</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>126</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="F144" s="1">
         <f t="shared" si="1"/>
@@ -4212,10 +4523,13 @@
         <v>112</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>126</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="F145" s="1">
         <f t="shared" si="1"/>
@@ -4230,10 +4544,13 @@
         <v>111</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>303</v>
       </c>
       <c r="F146" s="1">
         <f t="shared" si="1"/>
@@ -4245,13 +4562,16 @@
         <v>1145</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F147" s="1">
         <f t="shared" si="1"/>
@@ -4259,17 +4579,20 @@
       </c>
     </row>
     <row r="148" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
+      <c r="A148" s="7">
         <v>1146</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>111</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>170</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="F148" s="1">
         <f t="shared" si="1"/>
@@ -4284,10 +4607,13 @@
         <v>111</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>170</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>305</v>
       </c>
       <c r="F149" s="1">
         <f t="shared" si="1"/>
@@ -4302,10 +4628,13 @@
         <v>111</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>170</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>306</v>
       </c>
       <c r="F150" s="1">
         <f t="shared" si="1"/>
@@ -4320,727 +4649,17 @@
         <v>111</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>170</v>
       </c>
+      <c r="E151" s="1" t="s">
+        <v>307</v>
+      </c>
       <c r="F151" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
-        <v>1150</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C152" t="s">
-        <v>173</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F152" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
-        <v>1151</v>
-      </c>
-      <c r="F153" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
-        <v>1152</v>
-      </c>
-      <c r="F154" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
-        <v>1153</v>
-      </c>
-      <c r="F155" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
-        <v>1154</v>
-      </c>
-      <c r="F156" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="1">
-        <v>1155</v>
-      </c>
-      <c r="F157" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="1">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="1">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="1">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="1">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="1">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="1">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="1">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="1">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="1">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="1">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="1">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="1">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="1">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="1">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="1">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="1">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="1">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="1">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="1">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="1">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="1">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="1">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="1">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="1">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="1">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="1">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="1">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="1">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="1">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="1">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="1">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="1">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="1">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="1">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="1">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="1">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="1">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="1">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="1">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="1">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="1">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="1">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="1">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="1">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="1">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="1">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="1">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="1">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="1">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="1">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="1">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="1">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="1">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="1">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="1">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="1">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="1">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="1">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="1">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="1">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="1">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="1">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="1">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="1">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="1">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="1">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="1">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="1">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="1">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="1">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="1">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="1">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="1">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="1">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="1">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="1">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="1">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="1">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="1">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="1">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="1">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="1">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="1">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="1">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="1">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="1">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="1">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="1">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="1">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="1">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="1">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="1">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="1">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="1">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="1">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="1">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="1">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="1">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="1">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="1">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="1">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="1">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="1">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="1">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="1">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="1">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="1">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="1">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="1">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="1">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="1">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="1">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="1">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="1">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="1">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="1">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="1">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="1">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="1">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="1">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="1">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="1">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="1">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="1">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="1">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="1">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="1">
-        <v>1285</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/Conversation_Data.xlsx
+++ b/GameDesign/ExcelData/Conversation_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F030E0B-A425-4814-9CDB-5FCE2CCA7631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEE422B-6CA9-418F-A411-432A461F7BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14303" yWindow="-98" windowWidth="19394" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -887,10 +890,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[1005,1002]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>But your touch calms and heals people. Like your grandma. Isn’t that a gift from the gods?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -911,10 +910,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[1002,1005]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[75]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1138,6 +1133,12 @@
   <si>
     <t>[140,141,142]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1005,1003]</t>
+  </si>
+  <si>
+    <t>[1003,1005]</t>
   </si>
 </sst>
 </file>
@@ -1530,21 +1531,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D149" sqref="D149"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="19.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.33203125" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" customWidth="1"/>
-    <col min="5" max="5" width="31.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.375" customWidth="1"/>
+    <col min="4" max="4" width="33.125" customWidth="1"/>
+    <col min="5" max="5" width="31.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1564,7 +1565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1584,7 +1585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
@@ -1604,9 +1605,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -1624,7 +1625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>1003</v>
       </c>
@@ -1644,7 +1645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>1004</v>
       </c>
@@ -1664,7 +1665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1005</v>
       </c>
@@ -1684,7 +1685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1006</v>
       </c>
@@ -1704,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1007</v>
       </c>
@@ -1724,7 +1725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1008</v>
       </c>
@@ -1744,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1009</v>
       </c>
@@ -1764,7 +1765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1010</v>
       </c>
@@ -1784,7 +1785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1011</v>
       </c>
@@ -1804,7 +1805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1012</v>
       </c>
@@ -1824,7 +1825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1013</v>
       </c>
@@ -1844,7 +1845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>1014</v>
       </c>
@@ -1864,7 +1865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1015</v>
       </c>
@@ -1884,7 +1885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>1016</v>
       </c>
@@ -1904,7 +1905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>1017</v>
       </c>
@@ -1924,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>1018</v>
       </c>
@@ -1944,7 +1945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>1019</v>
       </c>
@@ -1964,7 +1965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>1020</v>
       </c>
@@ -1984,7 +1985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>1021</v>
       </c>
@@ -2004,7 +2005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>1022</v>
       </c>
@@ -2024,7 +2025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>1023</v>
       </c>
@@ -2044,7 +2045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>1024</v>
       </c>
@@ -2064,7 +2065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>1025</v>
       </c>
@@ -2084,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>1026</v>
       </c>
@@ -2104,7 +2105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>1027</v>
       </c>
@@ -2124,7 +2125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>1028</v>
       </c>
@@ -2144,7 +2145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>1029</v>
       </c>
@@ -2164,7 +2165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>1030</v>
       </c>
@@ -2184,7 +2185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>1031</v>
       </c>
@@ -2204,7 +2205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>1032</v>
       </c>
@@ -2224,7 +2225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>1033</v>
       </c>
@@ -2244,7 +2245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>1034</v>
       </c>
@@ -2264,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>1035</v>
       </c>
@@ -2284,7 +2285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>1036</v>
       </c>
@@ -2304,7 +2305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>1037</v>
       </c>
@@ -2324,7 +2325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>1038</v>
       </c>
@@ -2344,7 +2345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>1039</v>
       </c>
@@ -2364,7 +2365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>1040</v>
       </c>
@@ -2384,7 +2385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>1041</v>
       </c>
@@ -2404,7 +2405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>1042</v>
       </c>
@@ -2424,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>1043</v>
       </c>
@@ -2444,7 +2445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>1044</v>
       </c>
@@ -2464,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>1045</v>
       </c>
@@ -2484,7 +2485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>1046</v>
       </c>
@@ -2504,7 +2505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>1047</v>
       </c>
@@ -2524,7 +2525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>1048</v>
       </c>
@@ -2544,7 +2545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>1049</v>
       </c>
@@ -2564,7 +2565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>1050</v>
       </c>
@@ -2584,7 +2585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>1051</v>
       </c>
@@ -2604,7 +2605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>1052</v>
       </c>
@@ -2625,7 +2626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>1053</v>
       </c>
@@ -2646,7 +2647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>1054</v>
       </c>
@@ -2667,7 +2668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>1055</v>
       </c>
@@ -2688,7 +2689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>1056</v>
       </c>
@@ -2709,7 +2710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>1057</v>
       </c>
@@ -2730,7 +2731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>1058</v>
       </c>
@@ -2751,7 +2752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>1059</v>
       </c>
@@ -2772,7 +2773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>1060</v>
       </c>
@@ -2793,7 +2794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>1061</v>
       </c>
@@ -2814,7 +2815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>1062</v>
       </c>
@@ -2835,7 +2836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>1063</v>
       </c>
@@ -2856,7 +2857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>1064</v>
       </c>
@@ -2877,7 +2878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>1065</v>
       </c>
@@ -2898,7 +2899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>1066</v>
       </c>
@@ -2919,7 +2920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>1067</v>
       </c>
@@ -2940,7 +2941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>1068</v>
       </c>
@@ -2961,7 +2962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>1069</v>
       </c>
@@ -2982,7 +2983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>1070</v>
       </c>
@@ -3003,7 +3004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>1071</v>
       </c>
@@ -3024,7 +3025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
         <v>1072</v>
       </c>
@@ -3045,7 +3046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>1073</v>
       </c>
@@ -3066,7 +3067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>1074</v>
       </c>
@@ -3087,7 +3088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>1075</v>
       </c>
@@ -3108,7 +3109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>1076</v>
       </c>
@@ -3129,7 +3130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>1077</v>
       </c>
@@ -3143,14 +3144,14 @@
         <v>138</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F79" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>1078</v>
       </c>
@@ -3171,7 +3172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
         <v>1079</v>
       </c>
@@ -3185,14 +3186,14 @@
         <v>126</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F81" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>1080</v>
       </c>
@@ -3206,14 +3207,14 @@
         <v>126</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F82" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>1081</v>
       </c>
@@ -3227,14 +3228,14 @@
         <v>126</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F83" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>1082</v>
       </c>
@@ -3255,7 +3256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="7">
         <v>1083</v>
       </c>
@@ -3269,14 +3270,14 @@
         <v>174</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F85" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>1084</v>
       </c>
@@ -3284,20 +3285,20 @@
         <v>175</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>174</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F86" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>1085</v>
       </c>
@@ -3311,14 +3312,14 @@
         <v>174</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F87" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>1086</v>
       </c>
@@ -3329,17 +3330,17 @@
         <v>176</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>235</v>
+        <v>306</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F88" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>1087</v>
       </c>
@@ -3350,17 +3351,17 @@
         <v>177</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>235</v>
+        <v>306</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F89" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>1088</v>
       </c>
@@ -3374,14 +3375,14 @@
         <v>174</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F90" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>1089</v>
       </c>
@@ -3395,14 +3396,14 @@
         <v>174</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F91" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>1090</v>
       </c>
@@ -3416,14 +3417,14 @@
         <v>174</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F92" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>1091</v>
       </c>
@@ -3437,14 +3438,14 @@
         <v>174</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F93" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>1092</v>
       </c>
@@ -3458,14 +3459,14 @@
         <v>174</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F94" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>1093</v>
       </c>
@@ -3479,14 +3480,14 @@
         <v>174</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F95" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>1094</v>
       </c>
@@ -3507,7 +3508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="7">
         <v>1095</v>
       </c>
@@ -3518,17 +3519,17 @@
         <v>186</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F97" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>1096</v>
       </c>
@@ -3539,17 +3540,17 @@
         <v>187</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F98" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>1097</v>
       </c>
@@ -3563,14 +3564,14 @@
         <v>174</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F99" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>1098</v>
       </c>
@@ -3584,14 +3585,14 @@
         <v>174</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F100" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>1099</v>
       </c>
@@ -3605,14 +3606,14 @@
         <v>174</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F101" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>1100</v>
       </c>
@@ -3626,14 +3627,14 @@
         <v>174</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F102" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>1101</v>
       </c>
@@ -3647,14 +3648,14 @@
         <v>174</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F103" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>1102</v>
       </c>
@@ -3668,14 +3669,14 @@
         <v>174</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F104" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>1103</v>
       </c>
@@ -3689,14 +3690,14 @@
         <v>174</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F105" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>1104</v>
       </c>
@@ -3707,17 +3708,17 @@
         <v>195</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F106" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>1105</v>
       </c>
@@ -3728,17 +3729,17 @@
         <v>196</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F107" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>1106</v>
       </c>
@@ -3749,7 +3750,7 @@
         <v>197</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>6</v>
@@ -3759,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>1107</v>
       </c>
@@ -3770,17 +3771,17 @@
         <v>198</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F109" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>1108</v>
       </c>
@@ -3791,7 +3792,7 @@
         <v>199</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>6</v>
@@ -3801,7 +3802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A111" s="7">
         <v>1109</v>
       </c>
@@ -3812,17 +3813,17 @@
         <v>200</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F111" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>1110</v>
       </c>
@@ -3833,17 +3834,17 @@
         <v>201</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F112" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>1111</v>
       </c>
@@ -3854,7 +3855,7 @@
         <v>202</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>6</v>
@@ -3864,7 +3865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>1112</v>
       </c>
@@ -3875,17 +3876,17 @@
         <v>203</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F114" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>1113</v>
       </c>
@@ -3896,7 +3897,7 @@
         <v>204</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>6</v>
@@ -3906,7 +3907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="7">
         <v>1114</v>
       </c>
@@ -3914,20 +3915,20 @@
         <v>111</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>138</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F116" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>1115</v>
       </c>
@@ -3941,14 +3942,14 @@
         <v>138</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F117" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>1116</v>
       </c>
@@ -3962,14 +3963,14 @@
         <v>138</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F118" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>1117</v>
       </c>
@@ -3983,14 +3984,14 @@
         <v>138</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F119" s="1">
         <f t="shared" ref="F119:F151" si="1">IF(B119="Boss",1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>1118</v>
       </c>
@@ -3998,20 +3999,20 @@
         <v>111</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>138</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F120" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>1119</v>
       </c>
@@ -4025,14 +4026,14 @@
         <v>138</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F121" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>1120</v>
       </c>
@@ -4040,20 +4041,20 @@
         <v>111</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>138</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F122" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>1121</v>
       </c>
@@ -4067,14 +4068,14 @@
         <v>138</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F123" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>1122</v>
       </c>
@@ -4088,14 +4089,14 @@
         <v>138</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F124" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>1123</v>
       </c>
@@ -4109,14 +4110,14 @@
         <v>138</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F125" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>1124</v>
       </c>
@@ -4124,20 +4125,20 @@
         <v>111</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>138</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F126" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>1125</v>
       </c>
@@ -4158,7 +4159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="7">
         <v>1126</v>
       </c>
@@ -4172,14 +4173,14 @@
         <v>138</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F128" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>1127</v>
       </c>
@@ -4193,14 +4194,14 @@
         <v>138</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F129" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>1128</v>
       </c>
@@ -4214,14 +4215,14 @@
         <v>138</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F130" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>1129</v>
       </c>
@@ -4229,20 +4230,20 @@
         <v>145</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>138</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F131" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>1130</v>
       </c>
@@ -4250,7 +4251,7 @@
         <v>111</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>138</v>
@@ -4263,28 +4264,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="7">
         <v>1131</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C133" s="11" t="s">
         <v>216</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F133" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>1132</v>
       </c>
@@ -4295,38 +4296,38 @@
         <v>217</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F134" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>1133</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C135" s="11" t="s">
         <v>218</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F135" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>1134</v>
       </c>
@@ -4337,38 +4338,38 @@
         <v>219</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F136" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>1135</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C137" s="11" t="s">
         <v>220</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F137" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>1136</v>
       </c>
@@ -4379,28 +4380,28 @@
         <v>221</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F138" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>1137</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C139" s="11" t="s">
         <v>222</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>6</v>
@@ -4410,7 +4411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="7">
         <v>1138</v>
       </c>
@@ -4424,14 +4425,14 @@
         <v>174</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F140" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>1139</v>
       </c>
@@ -4445,14 +4446,14 @@
         <v>174</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F141" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>1140</v>
       </c>
@@ -4463,17 +4464,17 @@
         <v>225</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>241</v>
+        <v>307</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F142" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>1141</v>
       </c>
@@ -4484,17 +4485,17 @@
         <v>226</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>241</v>
+        <v>307</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F143" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>1142</v>
       </c>
@@ -4505,17 +4506,17 @@
         <v>227</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F144" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>1143</v>
       </c>
@@ -4526,17 +4527,17 @@
         <v>228</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F145" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>1144</v>
       </c>
@@ -4550,14 +4551,14 @@
         <v>174</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F146" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>1145</v>
       </c>
@@ -4578,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A148" s="7">
         <v>1146</v>
       </c>
@@ -4592,14 +4593,14 @@
         <v>170</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F148" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>1147</v>
       </c>
@@ -4613,14 +4614,14 @@
         <v>170</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F149" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>1148</v>
       </c>
@@ -4634,14 +4635,14 @@
         <v>170</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F150" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>1149</v>
       </c>
@@ -4655,7 +4656,7 @@
         <v>170</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F151" s="1">
         <f t="shared" si="1"/>

--- a/GameDesign/ExcelData/Conversation_Data.xlsx
+++ b/GameDesign/ExcelData/Conversation_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEE422B-6CA9-418F-A411-432A461F7BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD9349B-39C4-4068-8FFC-916F2B42BA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="-98" windowWidth="19394" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1531,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>

--- a/GameDesign/ExcelData/Conversation_Data.xlsx
+++ b/GameDesign/ExcelData/Conversation_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD9349B-39C4-4068-8FFC-916F2B42BA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B1C7C2-011E-4803-AC52-B14A144E3006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1531,7 +1531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
